--- a/Basededatos/detalles_transformadores.xlsx
+++ b/Basededatos/detalles_transformadores.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roquispec\OneDrive - LUZ DEL SUR S.A.A\Documentos\Estudios de Ingreso\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roquispec\OneDrive - LUZ DEL SUR S.A.A\Documentos\Estudios de Ingreso\ProyectoRyD_V2\Basededatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{FC70FE05-AA3A-488C-BC12-EC81375FD954}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{92EC70E4-0887-4C4C-ADFE-967AAAB5A50A}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{FC70FE05-AA3A-488C-BC12-EC81375FD954}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{E67651C5-978E-4D74-9A7F-CB5BFF80DE33}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" xr2:uid="{11242185-241D-4A74-AA8F-D46A2BE7D9FB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="211">
   <si>
     <t>Alto Pradera</t>
   </si>
@@ -211,9 +211,6 @@
   </si>
   <si>
     <t>Los Sauces</t>
-  </si>
-  <si>
-    <t>Pachacutec</t>
   </si>
   <si>
     <t>Progreso</t>
@@ -1437,8 +1434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA1F543B-E208-4497-A3ED-9DFED7C26A7E}">
   <dimension ref="A1:F166"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1449,19 +1446,19 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="B1" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="D1" s="19" t="s">
+      <c r="E1" s="20" t="s">
         <v>210</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
@@ -2364,7 +2361,7 @@
     </row>
     <row r="55" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>61</v>
@@ -2374,12 +2371,12 @@
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>61</v>
@@ -2389,42 +2386,42 @@
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>8</v>
@@ -2434,12 +2431,12 @@
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A60" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>9</v>
@@ -2449,52 +2446,52 @@
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -2505,101 +2502,101 @@
         <v>2</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D70" s="4"/>
       <c r="E70" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -2607,29 +2604,29 @@
         <v>146916</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D71" s="4"/>
       <c r="E71" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D72" s="4"/>
       <c r="E72" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -2640,86 +2637,86 @@
         <v>3</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D73" s="4"/>
       <c r="E73" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D74" s="4"/>
       <c r="E74" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D75" s="4"/>
       <c r="E75" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D76" s="4"/>
       <c r="E76" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D77" s="4"/>
       <c r="E77" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D78" s="4"/>
       <c r="E78" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -2727,44 +2724,44 @@
         <v>359111</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D79" s="4"/>
       <c r="E79" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A80" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D80" s="4"/>
       <c r="E80" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A81" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D81" s="4"/>
       <c r="E81" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -2772,14 +2769,14 @@
         <v>364074</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D82" s="4"/>
       <c r="E82" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -2787,119 +2784,119 @@
         <v>146917</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D83" s="4"/>
       <c r="E83" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A84" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D84" s="4"/>
       <c r="E84" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A85" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D85" s="4"/>
       <c r="E85" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D86" s="4"/>
       <c r="E86" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D88" s="4"/>
       <c r="E88" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D89" s="4"/>
       <c r="E89" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -2907,149 +2904,149 @@
         <v>364075</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D91" s="4"/>
       <c r="E91" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D92" s="4"/>
       <c r="E92" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D94" s="4"/>
       <c r="E94" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D95" s="4"/>
       <c r="E95" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A96" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D96" s="4"/>
       <c r="E96" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D97" s="4"/>
       <c r="E97" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A99" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D99" s="4"/>
       <c r="E99" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -3057,119 +3054,119 @@
         <v>364073</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D101" s="4"/>
       <c r="E101" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D102" s="4"/>
       <c r="E102" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D103" s="4"/>
       <c r="E103" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D104" s="4"/>
       <c r="E104" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A105" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D105" s="4"/>
       <c r="E105" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A106" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D106" s="4"/>
       <c r="E106" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D107" s="4"/>
       <c r="E107" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D108" s="4"/>
       <c r="E108" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -3177,59 +3174,59 @@
         <v>364077</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D109" s="4"/>
       <c r="E109" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A110" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D110" s="4"/>
       <c r="E110" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A111" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D111" s="4"/>
       <c r="E111" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D112" s="4"/>
       <c r="E112" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -3237,44 +3234,44 @@
         <v>359110</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D113" s="4"/>
       <c r="E113" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A114" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D114" s="4"/>
       <c r="E114" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A115" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D115" s="4"/>
       <c r="E115" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -3285,41 +3282,41 @@
         <v>7</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D116" s="4"/>
       <c r="E116" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D117" s="4"/>
       <c r="E117" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D118" s="4"/>
       <c r="E118" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -3327,29 +3324,29 @@
         <v>147400</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D119" s="4"/>
       <c r="E119" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D120" s="4"/>
       <c r="E120" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -3357,175 +3354,175 @@
         <v>146918</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D121" s="4"/>
       <c r="E121" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D122" s="4"/>
       <c r="E122" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A123" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D123" s="4"/>
       <c r="E123" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A124" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D124" s="4"/>
       <c r="E124" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A125" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D125" s="4"/>
       <c r="E125" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D126" s="4"/>
       <c r="E126" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A127" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D127" s="4"/>
       <c r="E127" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D128" s="4"/>
       <c r="E128" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A129" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B129" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C129" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="D129" s="4"/>
       <c r="E129" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A130" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D130" s="4"/>
       <c r="E130" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A131" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D131" s="4"/>
       <c r="E131" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>16</v>
@@ -3534,13 +3531,13 @@
     </row>
     <row r="133" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>17</v>
@@ -3549,13 +3546,13 @@
     </row>
     <row r="134" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>18</v>
@@ -3564,13 +3561,13 @@
     </row>
     <row r="135" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D135" s="4"/>
       <c r="E135" s="10" t="s">
@@ -3579,13 +3576,13 @@
     </row>
     <row r="136" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D136" s="4"/>
       <c r="E136" s="10" t="s">
@@ -3594,13 +3591,13 @@
     </row>
     <row r="137" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A137" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D137" s="4"/>
       <c r="E137" s="11" t="s">
@@ -3609,26 +3606,26 @@
     </row>
     <row r="138" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D138" s="4"/>
       <c r="E138" s="16"/>
     </row>
     <row r="139" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A139" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D139" s="4"/>
       <c r="E139" s="10" t="s">
@@ -3637,26 +3634,26 @@
     </row>
     <row r="140" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B140" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C140" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>170</v>
       </c>
       <c r="D140" s="4"/>
       <c r="E140" s="16"/>
     </row>
     <row r="141" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A141" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D141" s="4"/>
       <c r="E141" s="10" t="s">
@@ -3665,13 +3662,13 @@
     </row>
     <row r="142" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A142" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D142" s="4"/>
       <c r="E142" s="10" t="s">
@@ -3680,13 +3677,13 @@
     </row>
     <row r="143" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A143" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D143" s="4"/>
       <c r="E143" s="10" t="s">
@@ -3695,13 +3692,13 @@
     </row>
     <row r="144" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A144" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D144" s="4"/>
       <c r="E144" s="10" t="s">
@@ -3710,13 +3707,13 @@
     </row>
     <row r="145" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A145" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D145" s="4"/>
       <c r="E145" s="10" t="s">
@@ -3725,13 +3722,13 @@
     </row>
     <row r="146" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A146" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D146" s="4"/>
       <c r="E146" s="11" t="s">
@@ -3740,159 +3737,159 @@
     </row>
     <row r="147" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A147" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D147" s="4"/>
       <c r="E147" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A148" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D148" s="4"/>
       <c r="E148" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A149" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D149" s="4"/>
       <c r="E149" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D150" s="4"/>
       <c r="E150" s="16"/>
     </row>
     <row r="151" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B151" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C151" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>170</v>
       </c>
       <c r="D151" s="4"/>
       <c r="E151" s="16"/>
     </row>
     <row r="152" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D152" s="4"/>
       <c r="E152" s="16"/>
     </row>
     <row r="153" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A153" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D153" s="4"/>
       <c r="E153" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="154" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A154" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D154" s="4"/>
       <c r="E154" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="155" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A155" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D155" s="4"/>
       <c r="E155" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="156" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A156" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D156" s="4"/>
       <c r="E156" s="11"/>
     </row>
     <row r="157" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A157" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D157" s="4"/>
       <c r="E157" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="158" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -3903,47 +3900,47 @@
         <v>7</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D158" s="4"/>
       <c r="E158" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="159" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A159" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D159" s="4"/>
       <c r="E159" s="11"/>
     </row>
     <row r="160" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A160" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D160" s="4"/>
       <c r="E160" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
@@ -3951,10 +3948,10 @@
     </row>
     <row r="162" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A162" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
@@ -3962,41 +3959,41 @@
     </row>
     <row r="163" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A163" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
       <c r="E163" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A164" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
       <c r="E164" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A165" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
       <c r="E165" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="166" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -4004,12 +4001,12 @@
         <v>338118</v>
       </c>
       <c r="B166" s="22" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C166" s="23"/>
       <c r="D166" s="23"/>
       <c r="E166" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -4021,6 +4018,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="a1cc19d0-e28e-4f1b-b120-4e42c2fee203" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100973BFEFB9E8EED45AA48D1DFC8B704A3" ma:contentTypeVersion="10" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="48fa98e84d6ca432d9ec38d9b25c34f3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a1cc19d0-e28e-4f1b-b120-4e42c2fee203" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8208d0d75ea2fc72020bc14120e8df3f" ns3:_="">
     <xsd:import namespace="a1cc19d0-e28e-4f1b-b120-4e42c2fee203"/>
@@ -4202,24 +4216,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AB6E9F9-7002-453D-A23F-C770D0B18A16}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="a1cc19d0-e28e-4f1b-b120-4e42c2fee203"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="a1cc19d0-e28e-4f1b-b120-4e42c2fee203" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12910BB7-EA3B-4F18-8415-6111C589BCB9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C89EA1E5-D714-4CF4-A402-332B720743E2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4235,28 +4256,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12910BB7-EA3B-4F18-8415-6111C589BCB9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AB6E9F9-7002-453D-A23F-C770D0B18A16}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="a1cc19d0-e28e-4f1b-b120-4e42c2fee203"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Basededatos/detalles_transformadores.xlsx
+++ b/Basededatos/detalles_transformadores.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://luzdelsurlds-my.sharepoint.com/personal/roquispec_luzdelsur_com_pe/Documents/Documentos/Estudios de Ingreso/ProyectoRyD_V2/Basededatos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roquispec\OneDrive - LUZ DEL SUR S.A.A\Documentos\Estudios de Ingreso\ProyectoRyD_V2\Basededatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="6_{F1E03C79-CB95-42C2-A5F2-68DAEC76D33A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{934B716F-A68D-433A-B99A-5A095F781A56}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="6_{F1E03C79-CB95-42C2-A5F2-68DAEC76D33A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B62691C-0D01-467A-A67E-B758A3C6695C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{11242185-241D-4A74-AA8F-D46A2BE7D9FB}"/>
   </bookViews>
@@ -24,15 +24,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
       <xlwcv:version setVersion="1"/>
     </ext>
@@ -1097,7 +1088,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1122,8 +1113,26 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1133,6 +1142,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1246,7 +1261,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1272,66 +1287,17 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{3014A368-80E9-4EAB-913F-5CFA4FBE9311}"/>
   </cellStyles>
-  <dxfs count="19">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="0"/>
-        <name val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF002060"/>
-        <name val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
+  <dxfs count="18">
     <dxf>
       <font>
         <b val="0"/>
@@ -1775,19 +1741,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -1801,19 +1754,70 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <name val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
       <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <name val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -1830,25 +1834,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5F56859F-08D4-4BC2-887B-4FF00B101B3E}" name="Tabla1" displayName="Tabla1" ref="A1:M167" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="18" tableBorderDxfId="15" totalsRowBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5F56859F-08D4-4BC2-887B-4FF00B101B3E}" name="Tabla1" displayName="Tabla1" ref="A1:M167" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="13">
   <autoFilter ref="A1:M167" xr:uid="{5F56859F-08D4-4BC2-887B-4FF00B101B3E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E166">
+  <sortState ref="A2:E166">
     <sortCondition ref="B2:B166"/>
   </sortState>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{F6344666-3F16-4B8F-9819-0B63A270CC95}" name="SERIE" dataDxfId="14" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{BF3A1E42-E0D9-4CDF-8A8F-4D01DA9C2734}" name="SUBESTACION" dataDxfId="13" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{086311AC-BD2B-4D39-A59F-C2F3DBB5BD0F}" name="CIRCUITO" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{757AE7E8-24CE-4AA1-8778-20FAE11E45E5}" name="FASE" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{D454E399-B0D4-42AB-9912-282FD4830B8E}" name="TENSION" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{3CC8E47F-98F3-4318-AB1D-FAC9E7BC6874}" name="POT. INSTALADA" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{23F07AF9-B84D-4BF9-9DF2-DE1D85185F50}" name="POT. PLACA" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{ED7CF816-59D2-4619-8E39-1E2BDCA457A2}" name="RELACION TRANSFORMACION" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{CEE0FEA8-A128-445D-BD33-1D7629A44FBD}" name="MARCA" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{5E1DA30F-CECE-4D50-ACC9-1667500CE4C8}" name="Año Fab." dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{AB2BEE58-DAE3-42F4-9462-6851FF1D161C}" name="POTENCIA" dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{DABF4449-1876-463F-885E-3BF16AA12BAF}" name="POS. TAP" dataDxfId="3"/>
-    <tableColumn id="13" xr3:uid="{3C994351-839D-4BCF-BCD5-B289A1CC0FEA}" name="TENSION TAP" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{F6344666-3F16-4B8F-9819-0B63A270CC95}" name="SERIE" dataDxfId="12" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{BF3A1E42-E0D9-4CDF-8A8F-4D01DA9C2734}" name="SUBESTACION" dataDxfId="11" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{086311AC-BD2B-4D39-A59F-C2F3DBB5BD0F}" name="CIRCUITO" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{757AE7E8-24CE-4AA1-8778-20FAE11E45E5}" name="FASE" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{D454E399-B0D4-42AB-9912-282FD4830B8E}" name="TENSION" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{3CC8E47F-98F3-4318-AB1D-FAC9E7BC6874}" name="POT. INSTALADA" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{23F07AF9-B84D-4BF9-9DF2-DE1D85185F50}" name="POT. PLACA" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{ED7CF816-59D2-4619-8E39-1E2BDCA457A2}" name="RELACION TRANSFORMACION" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{CEE0FEA8-A128-445D-BD33-1D7629A44FBD}" name="MARCA" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{5E1DA30F-CECE-4D50-ACC9-1667500CE4C8}" name="Año Fab." dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{AB2BEE58-DAE3-42F4-9462-6851FF1D161C}" name="POTENCIA" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{DABF4449-1876-463F-885E-3BF16AA12BAF}" name="POS. TAP" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{3C994351-839D-4BCF-BCD5-B289A1CC0FEA}" name="TENSION TAP" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2154,7 +2158,7 @@
   <dimension ref="A1:M167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2165,8 +2169,8 @@
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="32.28515625" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="24" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.42578125" bestFit="1" customWidth="1"/>
@@ -2219,7 +2223,7 @@
       <c r="A2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -2260,7 +2264,7 @@
       <c r="A3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -2301,7 +2305,7 @@
       <c r="A4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -2342,7 +2346,7 @@
       <c r="A5" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="17" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -2381,7 +2385,7 @@
       <c r="A6" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -2414,7 +2418,7 @@
       <c r="A7" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="17" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -2455,7 +2459,7 @@
       <c r="A8" s="8">
         <v>551875</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="17" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -2496,7 +2500,7 @@
       <c r="A9" s="8">
         <v>551874</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="17" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -2537,7 +2541,7 @@
       <c r="A10" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -2570,7 +2574,7 @@
       <c r="A11" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -2605,7 +2609,7 @@
       <c r="A12" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -2644,7 +2648,7 @@
       <c r="A13" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -2683,7 +2687,7 @@
       <c r="A14" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -2722,7 +2726,7 @@
       <c r="A15" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -2761,7 +2765,7 @@
       <c r="A16" s="8">
         <v>185635</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -2800,7 +2804,7 @@
       <c r="A17" s="8">
         <v>185636</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -2839,7 +2843,7 @@
       <c r="A18" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -2878,7 +2882,7 @@
       <c r="A19" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -2917,7 +2921,7 @@
       <c r="A20" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -2956,7 +2960,7 @@
       <c r="A21" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="19" t="s">
         <v>2</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -2995,7 +2999,7 @@
       <c r="A22" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="19" t="s">
         <v>2</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -3034,7 +3038,7 @@
       <c r="A23" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="19" t="s">
         <v>2</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -3073,7 +3077,7 @@
       <c r="A24" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="15" t="s">
         <v>2</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -3110,7 +3114,7 @@
       <c r="A25" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="15" t="s">
         <v>2</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -3147,7 +3151,7 @@
       <c r="A26" s="8">
         <v>364072</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="15" t="s">
         <v>2</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -3184,7 +3188,7 @@
       <c r="A27" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="15" t="s">
         <v>2</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -3223,7 +3227,7 @@
       <c r="A28" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="15" t="s">
         <v>2</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -3262,7 +3266,7 @@
       <c r="A29" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="15" t="s">
         <v>2</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -3301,7 +3305,7 @@
       <c r="A30" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="15" t="s">
         <v>2</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -3334,7 +3338,7 @@
       <c r="A31" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="15" t="s">
         <v>2</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -3367,7 +3371,7 @@
       <c r="A32" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="15" t="s">
         <v>70</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -3404,7 +3408,7 @@
       <c r="A33" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="15" t="s">
         <v>70</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -3441,7 +3445,7 @@
       <c r="A34" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="15" t="s">
         <v>70</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -3478,7 +3482,7 @@
       <c r="A35" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="18" t="s">
         <v>71</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -3515,7 +3519,7 @@
       <c r="A36" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="18" t="s">
         <v>71</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -3552,7 +3556,7 @@
       <c r="A37" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="18" t="s">
         <v>71</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -3587,7 +3591,7 @@
       <c r="A38" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="18" t="s">
         <v>71</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -3622,7 +3626,7 @@
       <c r="A39" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="17" t="s">
         <v>59</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -3659,7 +3663,7 @@
       <c r="A40" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="15" t="s">
         <v>59</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -3696,7 +3700,7 @@
       <c r="A41" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="15" t="s">
         <v>72</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -3733,7 +3737,7 @@
       <c r="A42" s="8">
         <v>146916</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="15" t="s">
         <v>72</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -3770,7 +3774,7 @@
       <c r="A43" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="15" t="s">
         <v>72</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -3807,7 +3811,7 @@
       <c r="A44" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="15" t="s">
         <v>3</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -3846,7 +3850,7 @@
       <c r="A45" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="15" t="s">
         <v>3</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -3885,7 +3889,7 @@
       <c r="A46" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="15" t="s">
         <v>3</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -3924,7 +3928,7 @@
       <c r="A47" s="8">
         <v>185466</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="15" t="s">
         <v>3</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -3961,7 +3965,7 @@
       <c r="A48" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="15" t="s">
         <v>73</v>
       </c>
       <c r="C48" s="1" t="s">
@@ -3998,7 +4002,7 @@
       <c r="A49" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="15" t="s">
         <v>167</v>
       </c>
       <c r="C49" s="1" t="s">
@@ -4031,7 +4035,7 @@
       <c r="A50" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="15" t="s">
         <v>167</v>
       </c>
       <c r="C50" s="1" t="s">
@@ -4066,7 +4070,7 @@
       <c r="A51" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="15" t="s">
         <v>74</v>
       </c>
       <c r="C51" s="1" t="s">
@@ -4103,7 +4107,7 @@
       <c r="A52" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="15" t="s">
         <v>74</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -4140,7 +4144,7 @@
       <c r="A53" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="15" t="s">
         <v>75</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -4177,7 +4181,7 @@
       <c r="A54" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="15" t="s">
         <v>75</v>
       </c>
       <c r="C54" s="1" t="s">
@@ -4214,7 +4218,7 @@
       <c r="A55" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="15" t="s">
         <v>75</v>
       </c>
       <c r="C55" s="1" t="s">
@@ -4249,7 +4253,7 @@
       <c r="A56" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="15" t="s">
         <v>196</v>
       </c>
       <c r="C56" s="1" t="s">
@@ -4284,7 +4288,7 @@
       <c r="A57" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="15" t="s">
         <v>197</v>
       </c>
       <c r="C57" s="1" t="s">
@@ -4319,7 +4323,7 @@
       <c r="A58" s="8">
         <v>359111</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="15" t="s">
         <v>76</v>
       </c>
       <c r="C58" s="1" t="s">
@@ -4356,7 +4360,7 @@
       <c r="A59" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="15" t="s">
         <v>76</v>
       </c>
       <c r="C59" s="1" t="s">
@@ -4393,7 +4397,7 @@
       <c r="A60" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="15" t="s">
         <v>76</v>
       </c>
       <c r="C60" s="1" t="s">
@@ -4430,7 +4434,7 @@
       <c r="A61" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="15" t="s">
         <v>193</v>
       </c>
       <c r="C61" s="1" t="s">
@@ -4465,7 +4469,7 @@
       <c r="A62" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="15" t="s">
         <v>311</v>
       </c>
       <c r="C62" s="1" t="s">
@@ -4500,7 +4504,7 @@
       <c r="A63" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="15" t="s">
         <v>195</v>
       </c>
       <c r="C63" s="1" t="s">
@@ -4535,7 +4539,7 @@
       <c r="A64" s="8">
         <v>364074</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="15" t="s">
         <v>77</v>
       </c>
       <c r="C64" s="1" t="s">
@@ -4572,7 +4576,7 @@
       <c r="A65" s="8">
         <v>146917</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="15" t="s">
         <v>77</v>
       </c>
       <c r="C65" s="1" t="s">
@@ -4609,7 +4613,7 @@
       <c r="A66" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C66" s="1" t="s">
@@ -4648,7 +4652,7 @@
       <c r="A67" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C67" s="1" t="s">
@@ -4687,7 +4691,7 @@
       <c r="A68" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C68" s="1" t="s">
@@ -4726,7 +4730,7 @@
       <c r="A69" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C69" s="1" t="s">
@@ -4759,7 +4763,7 @@
       <c r="A70" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="15" t="s">
         <v>81</v>
       </c>
       <c r="C70" s="1" t="s">
@@ -4796,7 +4800,7 @@
       <c r="A71" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="15" t="s">
         <v>81</v>
       </c>
       <c r="C71" s="1" t="s">
@@ -4833,7 +4837,7 @@
       <c r="A72" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="15" t="s">
         <v>78</v>
       </c>
       <c r="C72" s="1" t="s">
@@ -4870,7 +4874,7 @@
       <c r="A73" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="15" t="s">
         <v>78</v>
       </c>
       <c r="C73" s="1" t="s">
@@ -4907,7 +4911,7 @@
       <c r="A74" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="15" t="s">
         <v>79</v>
       </c>
       <c r="C74" s="1" t="s">
@@ -4944,7 +4948,7 @@
       <c r="A75" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="15" t="s">
         <v>79</v>
       </c>
       <c r="C75" s="1" t="s">
@@ -4981,7 +4985,7 @@
       <c r="A76" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="15" t="s">
         <v>79</v>
       </c>
       <c r="C76" s="1" t="s">
@@ -5018,7 +5022,7 @@
       <c r="A77" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="15" t="s">
         <v>80</v>
       </c>
       <c r="C77" s="1" t="s">
@@ -5055,7 +5059,7 @@
       <c r="A78" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="15" t="s">
         <v>80</v>
       </c>
       <c r="C78" s="1" t="s">
@@ -5092,7 +5096,7 @@
       <c r="A79" s="8">
         <v>364075</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B79" s="15" t="s">
         <v>80</v>
       </c>
       <c r="C79" s="1" t="s">
@@ -5129,7 +5133,7 @@
       <c r="A80" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B80" s="15" t="s">
         <v>60</v>
       </c>
       <c r="C80" s="1" t="s">
@@ -5166,7 +5170,7 @@
       <c r="A81" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="B81" s="15" t="s">
         <v>60</v>
       </c>
       <c r="C81" s="1" t="s">
@@ -5203,7 +5207,7 @@
       <c r="A82" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B82" s="15" t="s">
         <v>60</v>
       </c>
       <c r="C82" s="1" t="s">
@@ -5236,7 +5240,7 @@
       <c r="A83" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B83" s="15" t="s">
         <v>82</v>
       </c>
       <c r="C83" s="1" t="s">
@@ -5273,7 +5277,7 @@
       <c r="A84" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="15" t="s">
         <v>82</v>
       </c>
       <c r="C84" s="1" t="s">
@@ -5310,7 +5314,7 @@
       <c r="A85" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="B85" s="17" t="s">
         <v>5</v>
       </c>
       <c r="C85" s="1" t="s">
@@ -5349,7 +5353,7 @@
       <c r="A86" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B86" s="17" t="s">
         <v>5</v>
       </c>
       <c r="C86" s="1" t="s">
@@ -5388,7 +5392,7 @@
       <c r="A87" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="B87" s="17" t="s">
         <v>5</v>
       </c>
       <c r="C87" s="1" t="s">
@@ -5427,7 +5431,7 @@
       <c r="A88" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="B88" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C88" s="1" t="s">
@@ -5464,7 +5468,7 @@
       <c r="A89" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="B89" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C89" s="1" t="s">
@@ -5501,7 +5505,7 @@
       <c r="A90" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="B90" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C90" s="1" t="s">
@@ -5534,7 +5538,7 @@
       <c r="A91" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="B91" s="5" t="s">
+      <c r="B91" s="15" t="s">
         <v>83</v>
       </c>
       <c r="C91" s="1" t="s">
@@ -5571,7 +5575,7 @@
       <c r="A92" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B92" s="15" t="s">
         <v>83</v>
       </c>
       <c r="C92" s="1" t="s">
@@ -5608,7 +5612,7 @@
       <c r="A93" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="B93" s="15" t="s">
         <v>85</v>
       </c>
       <c r="C93" s="1" t="s">
@@ -5645,7 +5649,7 @@
       <c r="A94" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="B94" s="15" t="s">
         <v>84</v>
       </c>
       <c r="C94" s="1" t="s">
@@ -5682,7 +5686,7 @@
       <c r="A95" s="8">
         <v>364073</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="B95" s="15" t="s">
         <v>84</v>
       </c>
       <c r="C95" s="1" t="s">
@@ -5719,7 +5723,7 @@
       <c r="A96" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="B96" s="15" t="s">
         <v>84</v>
       </c>
       <c r="C96" s="1" t="s">
@@ -5756,7 +5760,7 @@
       <c r="A97" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="B97" s="5" t="s">
+      <c r="B97" s="15" t="s">
         <v>86</v>
       </c>
       <c r="C97" s="1" t="s">
@@ -5793,7 +5797,7 @@
       <c r="A98" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="B98" s="15" t="s">
         <v>86</v>
       </c>
       <c r="C98" s="1" t="s">
@@ -5830,7 +5834,7 @@
       <c r="A99" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="B99" s="5" t="s">
+      <c r="B99" s="15" t="s">
         <v>194</v>
       </c>
       <c r="C99" s="1" t="s">
@@ -5865,7 +5869,7 @@
       <c r="A100" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B100" s="5" t="s">
+      <c r="B100" s="17" t="s">
         <v>232</v>
       </c>
       <c r="C100" s="1" t="s">
@@ -5902,7 +5906,7 @@
       <c r="A101" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B101" s="5" t="s">
+      <c r="B101" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C101" s="1" t="s">
@@ -5941,7 +5945,7 @@
       <c r="A102" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B102" s="5" t="s">
+      <c r="B102" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C102" s="1" t="s">
@@ -5980,7 +5984,7 @@
       <c r="A103" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B103" s="5" t="s">
+      <c r="B103" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C103" s="1" t="s">
@@ -6019,7 +6023,7 @@
       <c r="A104" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="B104" s="5" t="s">
+      <c r="B104" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C104" s="1" t="s">
@@ -6052,7 +6056,7 @@
       <c r="A105" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B105" s="5" t="s">
+      <c r="B105" s="17" t="s">
         <v>61</v>
       </c>
       <c r="C105" s="1" t="s">
@@ -6089,7 +6093,7 @@
       <c r="A106" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="B106" s="5" t="s">
+      <c r="B106" s="15" t="s">
         <v>87</v>
       </c>
       <c r="C106" s="1" t="s">
@@ -6126,7 +6130,7 @@
       <c r="A107" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="B107" s="5" t="s">
+      <c r="B107" s="15" t="s">
         <v>87</v>
       </c>
       <c r="C107" s="1" t="s">
@@ -6163,7 +6167,7 @@
       <c r="A108" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="B108" s="5" t="s">
+      <c r="B108" s="15" t="s">
         <v>87</v>
       </c>
       <c r="C108" s="1" t="s">
@@ -6200,7 +6204,7 @@
       <c r="A109" s="8">
         <v>338118</v>
       </c>
-      <c r="B109" s="5" t="s">
+      <c r="B109" s="15" t="s">
         <v>198</v>
       </c>
       <c r="C109" s="1" t="s">
@@ -6235,7 +6239,7 @@
       <c r="A110" s="8">
         <v>364077</v>
       </c>
-      <c r="B110" s="5" t="s">
+      <c r="B110" s="15" t="s">
         <v>88</v>
       </c>
       <c r="C110" s="1" t="s">
@@ -6272,7 +6276,7 @@
       <c r="A111" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="B111" s="5" t="s">
+      <c r="B111" s="15" t="s">
         <v>88</v>
       </c>
       <c r="C111" s="1" t="s">
@@ -6309,7 +6313,7 @@
       <c r="A112" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="B112" s="5" t="s">
+      <c r="B112" s="15" t="s">
         <v>89</v>
       </c>
       <c r="C112" s="1" t="s">
@@ -6346,7 +6350,7 @@
       <c r="A113" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="B113" s="5" t="s">
+      <c r="B113" s="17" t="s">
         <v>89</v>
       </c>
       <c r="C113" s="1" t="s">
@@ -6383,7 +6387,7 @@
       <c r="A114" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="B114" s="5" t="s">
+      <c r="B114" s="15" t="s">
         <v>89</v>
       </c>
       <c r="C114" s="1" t="s">
@@ -6418,7 +6422,7 @@
       <c r="A115" s="8">
         <v>359110</v>
       </c>
-      <c r="B115" s="5" t="s">
+      <c r="B115" s="15" t="s">
         <v>90</v>
       </c>
       <c r="C115" s="1" t="s">
@@ -6455,7 +6459,7 @@
       <c r="A116" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="B116" s="5" t="s">
+      <c r="B116" s="15" t="s">
         <v>90</v>
       </c>
       <c r="C116" s="1" t="s">
@@ -6492,7 +6496,7 @@
       <c r="A117" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="B117" s="5" t="s">
+      <c r="B117" s="15" t="s">
         <v>90</v>
       </c>
       <c r="C117" s="1" t="s">
@@ -6529,7 +6533,7 @@
       <c r="A118" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="B118" s="5" t="s">
+      <c r="B118" s="15" t="s">
         <v>90</v>
       </c>
       <c r="C118" s="1" t="s">
@@ -6564,7 +6568,7 @@
       <c r="A119" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B119" s="5" t="s">
+      <c r="B119" s="17" t="s">
         <v>7</v>
       </c>
       <c r="C119" s="1" t="s">
@@ -6603,7 +6607,7 @@
       <c r="A120" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B120" s="5" t="s">
+      <c r="B120" s="17" t="s">
         <v>7</v>
       </c>
       <c r="C120" s="1" t="s">
@@ -6642,7 +6646,7 @@
       <c r="A121" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B121" s="5" t="s">
+      <c r="B121" s="17" t="s">
         <v>7</v>
       </c>
       <c r="C121" s="1" t="s">
@@ -6681,7 +6685,7 @@
       <c r="A122" s="8">
         <v>185767</v>
       </c>
-      <c r="B122" s="5" t="s">
+      <c r="B122" s="17" t="s">
         <v>7</v>
       </c>
       <c r="C122" s="1" t="s">
@@ -6720,7 +6724,7 @@
       <c r="A123" s="8">
         <v>185766</v>
       </c>
-      <c r="B123" s="5" t="s">
+      <c r="B123" s="17" t="s">
         <v>7</v>
       </c>
       <c r="C123" s="1" t="s">
@@ -6759,7 +6763,7 @@
       <c r="A124" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="B124" s="5" t="s">
+      <c r="B124" s="17" t="s">
         <v>7</v>
       </c>
       <c r="C124" s="1" t="s">
@@ -6798,7 +6802,7 @@
       <c r="A125" s="8">
         <v>364078</v>
       </c>
-      <c r="B125" s="5" t="s">
+      <c r="B125" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C125" s="1" t="s">
@@ -6835,7 +6839,7 @@
       <c r="A126" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="B126" s="5" t="s">
+      <c r="B126" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C126" s="1" t="s">
@@ -6868,7 +6872,7 @@
       <c r="A127" s="8">
         <v>364076</v>
       </c>
-      <c r="B127" s="5" t="s">
+      <c r="B127" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C127" s="1" t="s">
@@ -6903,7 +6907,7 @@
       <c r="A128" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B128" s="5" t="s">
+      <c r="B128" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C128" s="1" t="s">
@@ -6942,7 +6946,7 @@
       <c r="A129" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B129" s="5" t="s">
+      <c r="B129" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C129" s="1" t="s">
@@ -6981,7 +6985,7 @@
       <c r="A130" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B130" s="5" t="s">
+      <c r="B130" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C130" s="1" t="s">
@@ -7020,7 +7024,7 @@
       <c r="A131" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B131" s="5" t="s">
+      <c r="B131" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C131" s="1" t="s">
@@ -7059,7 +7063,7 @@
       <c r="A132" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B132" s="5" t="s">
+      <c r="B132" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C132" s="1" t="s">
@@ -7098,7 +7102,7 @@
       <c r="A133" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B133" s="5" t="s">
+      <c r="B133" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C133" s="1" t="s">
@@ -7137,7 +7141,7 @@
       <c r="A134" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B134" s="5" t="s">
+      <c r="B134" s="17" t="s">
         <v>8</v>
       </c>
       <c r="C134" s="1" t="s">
@@ -7174,7 +7178,7 @@
       <c r="A135" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="B135" s="5" t="s">
+      <c r="B135" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C135" s="1" t="s">
@@ -7207,7 +7211,7 @@
       <c r="A136" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B136" s="5" t="s">
+      <c r="B136" s="15" t="s">
         <v>91</v>
       </c>
       <c r="C136" s="1" t="s">
@@ -7244,7 +7248,7 @@
       <c r="A137" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B137" s="5" t="s">
+      <c r="B137" s="15" t="s">
         <v>9</v>
       </c>
       <c r="C137" s="1" t="s">
@@ -7283,7 +7287,7 @@
       <c r="A138" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B138" s="5" t="s">
+      <c r="B138" s="15" t="s">
         <v>9</v>
       </c>
       <c r="C138" s="1" t="s">
@@ -7322,7 +7326,7 @@
       <c r="A139" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B139" s="5" t="s">
+      <c r="B139" s="15" t="s">
         <v>9</v>
       </c>
       <c r="C139" s="1" t="s">
@@ -7361,7 +7365,7 @@
       <c r="A140" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B140" s="5" t="s">
+      <c r="B140" s="15" t="s">
         <v>9</v>
       </c>
       <c r="C140" s="1" t="s">
@@ -7398,7 +7402,7 @@
       <c r="A141" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="B141" s="5" t="s">
+      <c r="B141" s="15" t="s">
         <v>9</v>
       </c>
       <c r="C141" s="1" t="s">
@@ -7431,7 +7435,7 @@
       <c r="A142" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="B142" s="5" t="s">
+      <c r="B142" s="15" t="s">
         <v>9</v>
       </c>
       <c r="C142" s="1" t="s">
@@ -7464,7 +7468,7 @@
       <c r="A143" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="B143" s="5" t="s">
+      <c r="B143" s="15" t="s">
         <v>92</v>
       </c>
       <c r="C143" s="1" t="s">
@@ -7501,7 +7505,7 @@
       <c r="A144" s="8">
         <v>147400</v>
       </c>
-      <c r="B144" s="5" t="s">
+      <c r="B144" s="15" t="s">
         <v>92</v>
       </c>
       <c r="C144" s="1" t="s">
@@ -7538,7 +7542,7 @@
       <c r="A145" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="B145" s="5" t="s">
+      <c r="B145" s="15" t="s">
         <v>93</v>
       </c>
       <c r="C145" s="1" t="s">
@@ -7575,7 +7579,7 @@
       <c r="A146" s="8">
         <v>146918</v>
       </c>
-      <c r="B146" s="5" t="s">
+      <c r="B146" s="15" t="s">
         <v>93</v>
       </c>
       <c r="C146" s="1" t="s">
@@ -7612,7 +7616,7 @@
       <c r="A147" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="B147" s="5" t="s">
+      <c r="B147" s="15" t="s">
         <v>93</v>
       </c>
       <c r="C147" s="1" t="s">
@@ -7647,7 +7651,7 @@
       <c r="A148" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="B148" s="5" t="s">
+      <c r="B148" s="15" t="s">
         <v>94</v>
       </c>
       <c r="C148" s="1" t="s">
@@ -7684,7 +7688,7 @@
       <c r="A149" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="B149" s="5" t="s">
+      <c r="B149" s="15" t="s">
         <v>94</v>
       </c>
       <c r="C149" s="1" t="s">
@@ -7721,7 +7725,7 @@
       <c r="A150" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="B150" s="5" t="s">
+      <c r="B150" s="15" t="s">
         <v>94</v>
       </c>
       <c r="C150" s="1" t="s">
@@ -7756,7 +7760,7 @@
       <c r="A151" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B151" s="5" t="s">
+      <c r="B151" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C151" s="1" t="s">
@@ -7795,7 +7799,7 @@
       <c r="A152" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B152" s="5" t="s">
+      <c r="B152" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C152" s="1" t="s">
@@ -7834,7 +7838,7 @@
       <c r="A153" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B153" s="5" t="s">
+      <c r="B153" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C153" s="1" t="s">
@@ -7873,7 +7877,7 @@
       <c r="A154" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="B154" s="5" t="s">
+      <c r="B154" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C154" s="1" t="s">
@@ -7912,7 +7916,7 @@
       <c r="A155" s="8">
         <v>59572</v>
       </c>
-      <c r="B155" s="5" t="s">
+      <c r="B155" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C155" s="1" t="s">
@@ -7951,7 +7955,7 @@
       <c r="A156" s="8">
         <v>59573</v>
       </c>
-      <c r="B156" s="5" t="s">
+      <c r="B156" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C156" s="1" t="s">
@@ -7990,7 +7994,7 @@
       <c r="A157" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="B157" s="5" t="s">
+      <c r="B157" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C157" s="1" t="s">
@@ -8023,7 +8027,7 @@
       <c r="A158" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="B158" s="5" t="s">
+      <c r="B158" s="15" t="s">
         <v>95</v>
       </c>
       <c r="C158" s="1" t="s">
@@ -8062,7 +8066,7 @@
       <c r="A159" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="B159" s="5" t="s">
+      <c r="B159" s="15" t="s">
         <v>96</v>
       </c>
       <c r="C159" s="1" t="s">
@@ -8101,7 +8105,7 @@
       <c r="A160" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="B160" s="5" t="s">
+      <c r="B160" s="15" t="s">
         <v>96</v>
       </c>
       <c r="C160" s="1" t="s">
@@ -8140,7 +8144,7 @@
       <c r="A161" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="B161" s="5" t="s">
+      <c r="B161" s="15" t="s">
         <v>97</v>
       </c>
       <c r="C161" s="1" t="s">
@@ -8179,7 +8183,7 @@
       <c r="A162" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="B162" s="5" t="s">
+      <c r="B162" s="15" t="s">
         <v>97</v>
       </c>
       <c r="C162" s="1" t="s">
@@ -8218,7 +8222,7 @@
       <c r="A163" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="B163" s="5" t="s">
+      <c r="B163" s="15" t="s">
         <v>97</v>
       </c>
       <c r="C163" s="1" t="s">
@@ -8253,7 +8257,7 @@
       <c r="A164" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="B164" s="5" t="s">
+      <c r="B164" s="15" t="s">
         <v>288</v>
       </c>
       <c r="C164" s="1" t="s">
@@ -8292,7 +8296,7 @@
       <c r="A165" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="B165" s="5" t="s">
+      <c r="B165" s="15" t="s">
         <v>288</v>
       </c>
       <c r="C165" s="1" t="s">
@@ -8331,7 +8335,7 @@
       <c r="A166" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="B166" s="12" t="s">
+      <c r="B166" s="16" t="s">
         <v>288</v>
       </c>
       <c r="C166" s="13" t="s">
@@ -8366,7 +8370,7 @@
       <c r="A167" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="B167" s="5" t="s">
+      <c r="B167" s="15" t="s">
         <v>98</v>
       </c>
       <c r="C167" s="1" t="s">
@@ -8403,8 +8407,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -14666,7 +14671,7 @@
       <c r="N1048576" s="5"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:L168">
+  <sortState ref="B3:L168">
     <sortCondition ref="C3:C168"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14684,14 +14689,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="a1cc19d0-e28e-4f1b-b120-4e42c2fee203" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100973BFEFB9E8EED45AA48D1DFC8B704A3" ma:contentTypeVersion="10" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="48fa98e84d6ca432d9ec38d9b25c34f3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a1cc19d0-e28e-4f1b-b120-4e42c2fee203" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8208d0d75ea2fc72020bc14120e8df3f" ns3:_="">
     <xsd:import namespace="a1cc19d0-e28e-4f1b-b120-4e42c2fee203"/>
@@ -14873,6 +14870,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="a1cc19d0-e28e-4f1b-b120-4e42c2fee203" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12910BB7-EA3B-4F18-8415-6111C589BCB9}">
   <ds:schemaRefs>
@@ -14882,22 +14887,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AB6E9F9-7002-453D-A23F-C770D0B18A16}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="a1cc19d0-e28e-4f1b-b120-4e42c2fee203"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C89EA1E5-D714-4CF4-A402-332B720743E2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14913,4 +14902,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AB6E9F9-7002-453D-A23F-C770D0B18A16}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="a1cc19d0-e28e-4f1b-b120-4e42c2fee203"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Basededatos/detalles_transformadores.xlsx
+++ b/Basededatos/detalles_transformadores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roquispec\OneDrive - LUZ DEL SUR S.A.A\Documentos\Estudios de Ingreso\ProyectoRyD_V2\Basededatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="6_{F1E03C79-CB95-42C2-A5F2-68DAEC76D33A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B62691C-0D01-467A-A67E-B758A3C6695C}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="6_{F1E03C79-CB95-42C2-A5F2-68DAEC76D33A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A5439D8-FD30-4BB1-9159-A83AF5F8AB0C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{11242185-241D-4A74-AA8F-D46A2BE7D9FB}"/>
   </bookViews>
@@ -2157,8 +2157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA1F543B-E208-4497-A3ED-9DFED7C26A7E}">
   <dimension ref="A1:M167"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="L142" sqref="L142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5835,7 +5835,7 @@
         <v>200</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>194</v>
+        <v>86</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>320</v>
@@ -5907,7 +5907,7 @@
         <v>40</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>6</v>
+        <v>232</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>11</v>
@@ -5946,7 +5946,7 @@
         <v>41</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>6</v>
+        <v>232</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>11</v>
@@ -5985,7 +5985,7 @@
         <v>42</v>
       </c>
       <c r="B103" s="15" t="s">
-        <v>6</v>
+        <v>232</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>11</v>
@@ -6024,7 +6024,7 @@
         <v>175</v>
       </c>
       <c r="B104" s="15" t="s">
-        <v>6</v>
+        <v>232</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>320</v>
@@ -14680,15 +14680,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100973BFEFB9E8EED45AA48D1DFC8B704A3" ma:contentTypeVersion="10" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="48fa98e84d6ca432d9ec38d9b25c34f3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a1cc19d0-e28e-4f1b-b120-4e42c2fee203" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8208d0d75ea2fc72020bc14120e8df3f" ns3:_="">
     <xsd:import namespace="a1cc19d0-e28e-4f1b-b120-4e42c2fee203"/>
@@ -14870,6 +14861,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -14879,14 +14879,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12910BB7-EA3B-4F18-8415-6111C589BCB9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C89EA1E5-D714-4CF4-A402-332B720743E2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14904,18 +14896,26 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12910BB7-EA3B-4F18-8415-6111C589BCB9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AB6E9F9-7002-453D-A23F-C770D0B18A16}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="a1cc19d0-e28e-4f1b-b120-4e42c2fee203"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="a1cc19d0-e28e-4f1b-b120-4e42c2fee203"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Basededatos/detalles_transformadores.xlsx
+++ b/Basededatos/detalles_transformadores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roquispec\OneDrive - LUZ DEL SUR S.A.A\Documentos\Estudios de Ingreso\ProyectoRyD_V2\Basededatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="6_{F1E03C79-CB95-42C2-A5F2-68DAEC76D33A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A5439D8-FD30-4BB1-9159-A83AF5F8AB0C}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="6_{F1E03C79-CB95-42C2-A5F2-68DAEC76D33A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDADB7D0-DE33-4BCA-BFE1-535420216CC1}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{11242185-241D-4A74-AA8F-D46A2BE7D9FB}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2858" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2863" uniqueCount="353">
   <si>
     <t>Alto Pradera</t>
   </si>
@@ -1082,6 +1082,15 @@
   </si>
   <si>
     <t>40</t>
+  </si>
+  <si>
+    <t>348447</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>2013</t>
   </si>
 </sst>
 </file>
@@ -1261,7 +1270,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1292,6 +1301,12 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1834,10 +1849,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5F56859F-08D4-4BC2-887B-4FF00B101B3E}" name="Tabla1" displayName="Tabla1" ref="A1:M167" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="13">
-  <autoFilter ref="A1:M167" xr:uid="{5F56859F-08D4-4BC2-887B-4FF00B101B3E}"/>
-  <sortState ref="A2:E166">
-    <sortCondition ref="B2:B166"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5F56859F-08D4-4BC2-887B-4FF00B101B3E}" name="Tabla1" displayName="Tabla1" ref="A1:M168" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="13">
+  <autoFilter ref="A1:M168" xr:uid="{5F56859F-08D4-4BC2-887B-4FF00B101B3E}"/>
+  <sortState ref="A2:E167">
+    <sortCondition ref="B2:B167"/>
   </sortState>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{F6344666-3F16-4B8F-9819-0B63A270CC95}" name="SERIE" dataDxfId="12" dataCellStyle="Normal 2"/>
@@ -2155,10 +2170,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA1F543B-E208-4497-A3ED-9DFED7C26A7E}">
-  <dimension ref="A1:M167"/>
+  <dimension ref="A1:M168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="L142" sqref="L142"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="A128" sqref="A128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6904,47 +6919,33 @@
       <c r="M127" s="10"/>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A128" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B128" s="15" t="s">
-        <v>8</v>
+      <c r="A128" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="B128" s="21" t="s">
+        <v>7</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>16</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="D128" s="1"/>
       <c r="E128" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F128" s="1">
-        <v>80</v>
-      </c>
-      <c r="G128" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="H128" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="I128" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="J128" s="5">
-        <v>2016</v>
+        <v>351</v>
+      </c>
+      <c r="F128" s="1"/>
+      <c r="G128" s="5"/>
+      <c r="H128" s="1"/>
+      <c r="I128" s="5"/>
+      <c r="J128" s="5" t="s">
+        <v>352</v>
       </c>
       <c r="K128" s="5"/>
-      <c r="L128" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="M128" s="10" t="s">
-        <v>332</v>
-      </c>
+      <c r="L128" s="5"/>
+      <c r="M128" s="10"/>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B129" s="15" t="s">
         <v>8</v>
@@ -6953,7 +6954,7 @@
         <v>11</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E129" s="5" t="s">
         <v>58</v>
@@ -6983,7 +6984,7 @@
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B130" s="15" t="s">
         <v>8</v>
@@ -6992,7 +6993,7 @@
         <v>11</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E130" s="5" t="s">
         <v>58</v>
@@ -7022,16 +7023,16 @@
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B131" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E131" s="5" t="s">
         <v>58</v>
@@ -7049,11 +7050,11 @@
         <v>212</v>
       </c>
       <c r="J131" s="5">
-        <v>2023</v>
+        <v>2016</v>
       </c>
       <c r="K131" s="5"/>
       <c r="L131" s="5" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="M131" s="10" t="s">
         <v>332</v>
@@ -7061,7 +7062,7 @@
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B132" s="15" t="s">
         <v>8</v>
@@ -7070,7 +7071,7 @@
         <v>13</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E132" s="5" t="s">
         <v>58</v>
@@ -7100,7 +7101,7 @@
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B133" s="15" t="s">
         <v>8</v>
@@ -7109,7 +7110,7 @@
         <v>13</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E133" s="5" t="s">
         <v>58</v>
@@ -7139,153 +7140,153 @@
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B134" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B134" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D134" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="E134" s="5" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F134" s="1">
-        <v>50</v>
-      </c>
-      <c r="G134" s="5">
-        <v>50</v>
+        <v>80</v>
+      </c>
+      <c r="G134" s="5" t="s">
+        <v>210</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="I134" s="5" t="s">
         <v>212</v>
       </c>
       <c r="J134" s="5">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="K134" s="5"/>
       <c r="L134" s="5" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="M134" s="10" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="B135" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B135" s="17" t="s">
         <v>8</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>320</v>
+        <v>12</v>
       </c>
       <c r="D135" s="1"/>
       <c r="E135" s="5" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F135" s="1">
-        <v>80</v>
-      </c>
-      <c r="G135" s="5" t="s">
-        <v>296</v>
+        <v>50</v>
+      </c>
+      <c r="G135" s="5">
+        <v>50</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="I135" s="5" t="s">
         <v>212</v>
       </c>
       <c r="J135" s="5">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="K135" s="5"/>
-      <c r="L135" s="5"/>
-      <c r="M135" s="10"/>
+      <c r="L135" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="M135" s="10" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="8" t="s">
-        <v>147</v>
+        <v>177</v>
       </c>
       <c r="B136" s="15" t="s">
-        <v>91</v>
+        <v>8</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>99</v>
+        <v>320</v>
       </c>
       <c r="D136" s="1"/>
       <c r="E136" s="5" t="s">
-        <v>161</v>
+        <v>58</v>
       </c>
       <c r="F136" s="1">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="G136" s="5" t="s">
-        <v>277</v>
+        <v>296</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>278</v>
+        <v>227</v>
       </c>
       <c r="I136" s="5" t="s">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="J136" s="5">
-        <v>1998</v>
+        <v>2017</v>
       </c>
       <c r="K136" s="5"/>
-      <c r="L136" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="M136" s="10" t="s">
-        <v>329</v>
-      </c>
+      <c r="L136" s="5"/>
+      <c r="M136" s="10"/>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="8" t="s">
-        <v>52</v>
+        <v>147</v>
       </c>
       <c r="B137" s="15" t="s">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>16</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="D137" s="1"/>
       <c r="E137" s="5" t="s">
-        <v>58</v>
+        <v>161</v>
       </c>
       <c r="F137" s="1">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="G137" s="5" t="s">
-        <v>210</v>
+        <v>277</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>227</v>
+        <v>278</v>
       </c>
       <c r="I137" s="5" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="J137" s="5">
-        <v>2017</v>
+        <v>1998</v>
       </c>
       <c r="K137" s="5"/>
       <c r="L137" s="5" t="s">
         <v>323</v>
       </c>
       <c r="M137" s="10" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B138" s="15" t="s">
         <v>9</v>
@@ -7294,7 +7295,7 @@
         <v>12</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E138" s="5" t="s">
         <v>58</v>
@@ -7324,7 +7325,7 @@
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B139" s="15" t="s">
         <v>9</v>
@@ -7333,7 +7334,7 @@
         <v>12</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E139" s="5" t="s">
         <v>58</v>
@@ -7363,26 +7364,28 @@
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="8" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="B140" s="15" t="s">
         <v>9</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D140" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="E140" s="5" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="F140" s="1">
-        <v>50</v>
-      </c>
-      <c r="G140" s="5">
-        <v>50</v>
+        <v>80</v>
+      </c>
+      <c r="G140" s="5" t="s">
+        <v>210</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="I140" s="5" t="s">
         <v>228</v>
@@ -7395,45 +7398,49 @@
         <v>323</v>
       </c>
       <c r="M140" s="10" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="8" t="s">
-        <v>178</v>
+        <v>67</v>
       </c>
       <c r="B141" s="15" t="s">
         <v>9</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>320</v>
+        <v>13</v>
       </c>
       <c r="D141" s="1"/>
       <c r="E141" s="5" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="F141" s="1">
-        <v>80</v>
-      </c>
-      <c r="G141" s="5" t="s">
-        <v>296</v>
+        <v>50</v>
+      </c>
+      <c r="G141" s="5">
+        <v>50</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="I141" s="5" t="s">
         <v>228</v>
       </c>
       <c r="J141" s="5">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="K141" s="5"/>
-      <c r="L141" s="5"/>
-      <c r="M141" s="10"/>
+      <c r="L141" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="M141" s="10" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B142" s="15" t="s">
         <v>9</v>
@@ -7443,16 +7450,16 @@
       </c>
       <c r="D142" s="1"/>
       <c r="E142" s="5" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="F142" s="1">
-        <v>50</v>
-      </c>
-      <c r="G142" s="5">
-        <v>50</v>
+        <v>80</v>
+      </c>
+      <c r="G142" s="5" t="s">
+        <v>296</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>297</v>
+        <v>211</v>
       </c>
       <c r="I142" s="5" t="s">
         <v>228</v>
@@ -7466,69 +7473,65 @@
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="8" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="B143" s="15" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>99</v>
+        <v>320</v>
       </c>
       <c r="D143" s="1"/>
       <c r="E143" s="5" t="s">
-        <v>162</v>
+        <v>69</v>
       </c>
       <c r="F143" s="1">
-        <v>25</v>
-      </c>
-      <c r="G143" s="5" t="s">
-        <v>242</v>
+        <v>50</v>
+      </c>
+      <c r="G143" s="5">
+        <v>50</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>258</v>
+        <v>297</v>
       </c>
       <c r="I143" s="5" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="J143" s="5">
-        <v>1995</v>
+        <v>2018</v>
       </c>
       <c r="K143" s="5"/>
-      <c r="L143" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="M143" s="10">
-        <v>65.344999999999999</v>
-      </c>
+      <c r="L143" s="5"/>
+      <c r="M143" s="10"/>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A144" s="8">
-        <v>147400</v>
+      <c r="A144" s="8" t="s">
+        <v>148</v>
       </c>
       <c r="B144" s="15" t="s">
         <v>92</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D144" s="1"/>
       <c r="E144" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F144" s="1">
         <v>25</v>
       </c>
       <c r="G144" s="5" t="s">
-        <v>269</v>
+        <v>242</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="I144" s="5" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="J144" s="5">
-        <v>2016</v>
+        <v>1995</v>
       </c>
       <c r="K144" s="5"/>
       <c r="L144" s="5" t="s">
@@ -7539,33 +7542,33 @@
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A145" s="8" t="s">
-        <v>149</v>
+      <c r="A145" s="8">
+        <v>147400</v>
       </c>
       <c r="B145" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D145" s="1"/>
       <c r="E145" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F145" s="1">
-        <v>50</v>
-      </c>
-      <c r="G145" s="5">
-        <v>50</v>
+        <v>25</v>
+      </c>
+      <c r="G145" s="5" t="s">
+        <v>269</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="I145" s="5" t="s">
-        <v>212</v>
+        <v>241</v>
       </c>
       <c r="J145" s="5">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="K145" s="5"/>
       <c r="L145" s="5" t="s">
@@ -7576,33 +7579,33 @@
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A146" s="8">
-        <v>146918</v>
+      <c r="A146" s="8" t="s">
+        <v>149</v>
       </c>
       <c r="B146" s="15" t="s">
         <v>93</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D146" s="1"/>
       <c r="E146" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F146" s="1">
         <v>50</v>
       </c>
-      <c r="G146" s="5" t="s">
-        <v>238</v>
+      <c r="G146" s="5">
+        <v>50</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="I146" s="5" t="s">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="J146" s="5">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="K146" s="5"/>
       <c r="L146" s="5" t="s">
@@ -7613,105 +7616,105 @@
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A147" s="8" t="s">
-        <v>189</v>
+      <c r="A147" s="8">
+        <v>146918</v>
       </c>
       <c r="B147" s="15" t="s">
         <v>93</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>320</v>
+        <v>100</v>
       </c>
       <c r="D147" s="1"/>
       <c r="E147" s="5" t="s">
         <v>162</v>
       </c>
       <c r="F147" s="1">
-        <v>25</v>
-      </c>
-      <c r="G147" s="5">
-        <v>25</v>
+        <v>50</v>
+      </c>
+      <c r="G147" s="5" t="s">
+        <v>238</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>304</v>
+        <v>240</v>
       </c>
       <c r="I147" s="5" t="s">
-        <v>305</v>
+        <v>241</v>
       </c>
       <c r="J147" s="5">
-        <v>1965</v>
+        <v>2014</v>
       </c>
       <c r="K147" s="5"/>
       <c r="L147" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="M147" s="10"/>
+      <c r="M147" s="10">
+        <v>65.344999999999999</v>
+      </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" s="8" t="s">
-        <v>150</v>
+        <v>189</v>
       </c>
       <c r="B148" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>99</v>
+        <v>320</v>
       </c>
       <c r="D148" s="1"/>
       <c r="E148" s="5" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F148" s="1">
-        <v>50</v>
-      </c>
-      <c r="G148" s="5" t="s">
-        <v>238</v>
+        <v>25</v>
+      </c>
+      <c r="G148" s="5">
+        <v>25</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>253</v>
+        <v>304</v>
       </c>
       <c r="I148" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="J148" s="5" t="s">
-        <v>279</v>
+        <v>305</v>
+      </c>
+      <c r="J148" s="5">
+        <v>1965</v>
       </c>
       <c r="K148" s="5"/>
       <c r="L148" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="M148" s="10">
-        <v>65.344999999999999</v>
-      </c>
+      <c r="M148" s="10"/>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B149" s="15" t="s">
         <v>94</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D149" s="1"/>
       <c r="E149" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F149" s="1">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G149" s="5" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="I149" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="J149" s="5">
-        <v>1995</v>
+        <v>245</v>
+      </c>
+      <c r="J149" s="5" t="s">
+        <v>279</v>
       </c>
       <c r="K149" s="5"/>
       <c r="L149" s="5" t="s">
@@ -7723,81 +7726,79 @@
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" s="8" t="s">
-        <v>190</v>
+        <v>151</v>
       </c>
       <c r="B150" s="15" t="s">
         <v>94</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>320</v>
+        <v>100</v>
       </c>
       <c r="D150" s="1"/>
       <c r="E150" s="5" t="s">
         <v>162</v>
       </c>
       <c r="F150" s="1">
-        <v>12.5</v>
+        <v>25</v>
       </c>
       <c r="G150" s="5" t="s">
-        <v>306</v>
+        <v>242</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>307</v>
+        <v>258</v>
       </c>
       <c r="I150" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="J150" s="5" t="s">
-        <v>308</v>
+        <v>225</v>
+      </c>
+      <c r="J150" s="5">
+        <v>1995</v>
       </c>
       <c r="K150" s="5"/>
       <c r="L150" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="M150" s="10"/>
+      <c r="M150" s="10">
+        <v>65.344999999999999</v>
+      </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B151" s="17" t="s">
-        <v>10</v>
+        <v>190</v>
+      </c>
+      <c r="B151" s="15" t="s">
+        <v>94</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>16</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="D151" s="1"/>
       <c r="E151" s="5" t="s">
-        <v>58</v>
+        <v>162</v>
       </c>
       <c r="F151" s="1">
-        <v>40</v>
+        <v>12.5</v>
       </c>
       <c r="G151" s="5" t="s">
-        <v>218</v>
+        <v>306</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>224</v>
+        <v>307</v>
       </c>
       <c r="I151" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="J151" s="5">
-        <v>1998</v>
+        <v>247</v>
+      </c>
+      <c r="J151" s="5" t="s">
+        <v>308</v>
       </c>
       <c r="K151" s="5"/>
       <c r="L151" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="M151" s="10" t="s">
-        <v>334</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="M151" s="10"/>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B152" s="17" t="s">
         <v>10</v>
@@ -7806,7 +7807,7 @@
         <v>13</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E152" s="5" t="s">
         <v>58</v>
@@ -7836,7 +7837,7 @@
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B153" s="17" t="s">
         <v>10</v>
@@ -7845,7 +7846,7 @@
         <v>13</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E153" s="5" t="s">
         <v>58</v>
@@ -7860,10 +7861,10 @@
         <v>224</v>
       </c>
       <c r="I153" s="5" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="J153" s="5">
-        <v>2017</v>
+        <v>1998</v>
       </c>
       <c r="K153" s="5"/>
       <c r="L153" s="5" t="s">
@@ -7875,16 +7876,16 @@
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" s="8" t="s">
-        <v>340</v>
+        <v>57</v>
       </c>
       <c r="B154" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E154" s="5" t="s">
         <v>58</v>
@@ -7896,25 +7897,25 @@
         <v>218</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="I154" s="5" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="J154" s="5">
-        <v>1996</v>
+        <v>2017</v>
       </c>
       <c r="K154" s="5"/>
       <c r="L154" s="5" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M154" s="10" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A155" s="8">
-        <v>59572</v>
+      <c r="A155" s="8" t="s">
+        <v>340</v>
       </c>
       <c r="B155" s="17" t="s">
         <v>10</v>
@@ -7923,7 +7924,7 @@
         <v>14</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E155" s="5" t="s">
         <v>58</v>
@@ -7953,7 +7954,7 @@
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" s="8">
-        <v>59573</v>
+        <v>59572</v>
       </c>
       <c r="B156" s="17" t="s">
         <v>10</v>
@@ -7962,7 +7963,7 @@
         <v>14</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E156" s="5" t="s">
         <v>58</v>
@@ -7991,16 +7992,18 @@
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A157" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="B157" s="15" t="s">
+      <c r="A157" s="8">
+        <v>59573</v>
+      </c>
+      <c r="B157" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D157" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="E157" s="5" t="s">
         <v>58</v>
       </c>
@@ -8008,66 +8011,64 @@
         <v>40</v>
       </c>
       <c r="G157" s="5" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="I157" s="5" t="s">
         <v>225</v>
       </c>
       <c r="J157" s="5">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="K157" s="5"/>
-      <c r="L157" s="5"/>
-      <c r="M157" s="10"/>
+      <c r="L157" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="M157" s="10" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" s="8" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="B158" s="15" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>99</v>
+        <v>320</v>
       </c>
       <c r="D158" s="1"/>
       <c r="E158" s="5" t="s">
-        <v>162</v>
+        <v>58</v>
       </c>
       <c r="F158" s="1">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="G158" s="5" t="s">
-        <v>280</v>
+        <v>223</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>281</v>
+        <v>224</v>
       </c>
       <c r="I158" s="5" t="s">
-        <v>282</v>
+        <v>225</v>
       </c>
       <c r="J158" s="5">
-        <v>1966</v>
-      </c>
-      <c r="K158" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="L158" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="M158" s="10">
-        <v>65.344999999999999</v>
-      </c>
+        <v>1998</v>
+      </c>
+      <c r="K158" s="5"/>
+      <c r="L158" s="5"/>
+      <c r="M158" s="10"/>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B159" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>99</v>
@@ -8077,22 +8078,22 @@
         <v>162</v>
       </c>
       <c r="F159" s="1">
-        <v>50</v>
-      </c>
-      <c r="G159" s="5">
-        <v>50</v>
+        <v>5</v>
+      </c>
+      <c r="G159" s="5" t="s">
+        <v>280</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>239</v>
+        <v>281</v>
       </c>
       <c r="I159" s="5" t="s">
-        <v>241</v>
+        <v>282</v>
       </c>
       <c r="J159" s="5">
-        <v>2018</v>
+        <v>1966</v>
       </c>
       <c r="K159" s="5" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="L159" s="5" t="s">
         <v>323</v>
@@ -8103,35 +8104,35 @@
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B160" s="15" t="s">
         <v>96</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D160" s="1"/>
       <c r="E160" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F160" s="1">
-        <v>25</v>
-      </c>
-      <c r="G160" s="5" t="s">
-        <v>283</v>
+        <v>50</v>
+      </c>
+      <c r="G160" s="5">
+        <v>50</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="I160" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="J160" s="5" t="s">
-        <v>284</v>
+        <v>241</v>
+      </c>
+      <c r="J160" s="5">
+        <v>2018</v>
       </c>
       <c r="K160" s="5" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="L160" s="5" t="s">
         <v>323</v>
@@ -8142,32 +8143,32 @@
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B161" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D161" s="1"/>
       <c r="E161" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F161" s="1">
         <v>25</v>
       </c>
       <c r="G161" s="5" t="s">
-        <v>242</v>
+        <v>283</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="I161" s="5" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="J161" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K161" s="5" t="s">
         <v>345</v>
@@ -8181,13 +8182,13 @@
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B162" s="15" t="s">
         <v>97</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D162" s="1"/>
       <c r="E162" s="5" t="s">
@@ -8196,17 +8197,17 @@
       <c r="F162" s="1">
         <v>25</v>
       </c>
-      <c r="G162" s="5">
-        <v>25</v>
+      <c r="G162" s="5" t="s">
+        <v>242</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>286</v>
+        <v>258</v>
       </c>
       <c r="I162" s="5" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="J162" s="5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K162" s="5" t="s">
         <v>345</v>
@@ -8220,13 +8221,13 @@
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" s="8" t="s">
-        <v>191</v>
+        <v>156</v>
       </c>
       <c r="B163" s="15" t="s">
         <v>97</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>320</v>
+        <v>100</v>
       </c>
       <c r="D163" s="1"/>
       <c r="E163" s="5" t="s">
@@ -8235,33 +8236,37 @@
       <c r="F163" s="1">
         <v>25</v>
       </c>
-      <c r="G163" s="5" t="s">
-        <v>242</v>
+      <c r="G163" s="5">
+        <v>25</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="I163" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="J163" s="5">
-        <v>1980</v>
-      </c>
-      <c r="K163" s="5"/>
+        <v>245</v>
+      </c>
+      <c r="J163" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="K163" s="5" t="s">
+        <v>345</v>
+      </c>
       <c r="L163" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="M163" s="10"/>
+      <c r="M163" s="10">
+        <v>65.344999999999999</v>
+      </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" s="8" t="s">
-        <v>157</v>
+        <v>191</v>
       </c>
       <c r="B164" s="15" t="s">
-        <v>288</v>
+        <v>97</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>99</v>
+        <v>320</v>
       </c>
       <c r="D164" s="1"/>
       <c r="E164" s="5" t="s">
@@ -8274,55 +8279,51 @@
         <v>242</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>258</v>
+        <v>309</v>
       </c>
       <c r="I164" s="5" t="s">
-        <v>225</v>
+        <v>300</v>
       </c>
       <c r="J164" s="5">
-        <v>1993</v>
-      </c>
-      <c r="K164" s="5" t="s">
-        <v>345</v>
-      </c>
+        <v>1980</v>
+      </c>
+      <c r="K164" s="5"/>
       <c r="L164" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="M164" s="10">
-        <v>65.344999999999999</v>
-      </c>
+      <c r="M164" s="10"/>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B165" s="15" t="s">
         <v>288</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D165" s="1"/>
       <c r="E165" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F165" s="1">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="G165" s="5" t="s">
-        <v>274</v>
+        <v>242</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="I165" s="5" t="s">
         <v>225</v>
       </c>
       <c r="J165" s="5">
-        <v>2005</v>
+        <v>1993</v>
       </c>
       <c r="K165" s="5" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="L165" s="5" t="s">
         <v>323</v>
@@ -8332,76 +8333,115 @@
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A166" s="11" t="s">
+      <c r="A166" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B166" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D166" s="1"/>
+      <c r="E166" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="F166" s="1">
+        <v>40</v>
+      </c>
+      <c r="G166" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="H166" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="I166" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="J166" s="5">
+        <v>2005</v>
+      </c>
+      <c r="K166" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="L166" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="M166" s="10">
+        <v>65.344999999999999</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A167" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="B166" s="16" t="s">
+      <c r="B167" s="16" t="s">
         <v>288</v>
       </c>
-      <c r="C166" s="13" t="s">
+      <c r="C167" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="D166" s="13"/>
-      <c r="E166" s="12" t="s">
+      <c r="D167" s="13"/>
+      <c r="E167" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="F166" s="13">
+      <c r="F167" s="13">
         <v>25</v>
       </c>
-      <c r="G166" s="12" t="s">
+      <c r="G167" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="H166" s="13" t="s">
+      <c r="H167" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="I166" s="12" t="s">
+      <c r="I167" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="J166" s="12">
+      <c r="J167" s="12">
         <v>1980</v>
       </c>
-      <c r="K166" s="12"/>
-      <c r="L166" s="12" t="s">
-        <v>323</v>
-      </c>
-      <c r="M166" s="14"/>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A167" s="5" t="s">
+      <c r="K167" s="12"/>
+      <c r="L167" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="M167" s="14"/>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A168" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="B167" s="15" t="s">
+      <c r="B168" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="C167" s="1" t="s">
+      <c r="C168" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D167" s="1"/>
-      <c r="E167" s="5" t="s">
+      <c r="D168" s="1"/>
+      <c r="E168" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="F167" s="1">
+      <c r="F168" s="1">
         <v>25</v>
       </c>
-      <c r="G167" s="5" t="s">
+      <c r="G168" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="H167" s="1" t="s">
+      <c r="H168" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="I167" s="5" t="s">
+      <c r="I168" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="J167" s="5" t="s">
+      <c r="J168" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="K167" s="5" t="s">
+      <c r="K168" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="L167" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="M167" s="5">
+      <c r="L168" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="M168" s="5">
         <v>65.344999999999999</v>
       </c>
     </row>
@@ -14680,6 +14720,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100973BFEFB9E8EED45AA48D1DFC8B704A3" ma:contentTypeVersion="10" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="48fa98e84d6ca432d9ec38d9b25c34f3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a1cc19d0-e28e-4f1b-b120-4e42c2fee203" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8208d0d75ea2fc72020bc14120e8df3f" ns3:_="">
     <xsd:import namespace="a1cc19d0-e28e-4f1b-b120-4e42c2fee203"/>
@@ -14861,15 +14910,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -14879,6 +14919,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12910BB7-EA3B-4F18-8415-6111C589BCB9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C89EA1E5-D714-4CF4-A402-332B720743E2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14896,26 +14944,18 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12910BB7-EA3B-4F18-8415-6111C589BCB9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AB6E9F9-7002-453D-A23F-C770D0B18A16}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="a1cc19d0-e28e-4f1b-b120-4e42c2fee203"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="a1cc19d0-e28e-4f1b-b120-4e42c2fee203"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Basededatos/detalles_transformadores.xlsx
+++ b/Basededatos/detalles_transformadores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roquispec\OneDrive - LUZ DEL SUR S.A.A\Documentos\Estudios de Ingreso\ProyectoRyD_V2\Basededatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="66" documentId="6_{F1E03C79-CB95-42C2-A5F2-68DAEC76D33A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDADB7D0-DE33-4BCA-BFE1-535420216CC1}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="6_{F1E03C79-CB95-42C2-A5F2-68DAEC76D33A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{A918A0E3-CE11-49BB-820A-1F2C589F71AA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{11242185-241D-4A74-AA8F-D46A2BE7D9FB}"/>
   </bookViews>
@@ -2172,8 +2172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA1F543B-E208-4497-A3ED-9DFED7C26A7E}">
   <dimension ref="A1:M168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="A128" sqref="A128"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14720,12 +14720,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="a1cc19d0-e28e-4f1b-b120-4e42c2fee203" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14911,17 +14910,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="a1cc19d0-e28e-4f1b-b120-4e42c2fee203" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12910BB7-EA3B-4F18-8415-6111C589BCB9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AB6E9F9-7002-453D-A23F-C770D0B18A16}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="a1cc19d0-e28e-4f1b-b120-4e42c2fee203"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -14945,17 +14953,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AB6E9F9-7002-453D-A23F-C770D0B18A16}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12910BB7-EA3B-4F18-8415-6111C589BCB9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="a1cc19d0-e28e-4f1b-b120-4e42c2fee203"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Basededatos/detalles_transformadores.xlsx
+++ b/Basededatos/detalles_transformadores.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roquispec\OneDrive - LUZ DEL SUR S.A.A\Documentos\Estudios de Ingreso\ProyectoRyD_V2\Basededatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="73" documentId="6_{F1E03C79-CB95-42C2-A5F2-68DAEC76D33A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14EC4DEA-C675-41B7-B577-B3CA57FC6FBA}"/>
+  <xr:revisionPtr revIDLastSave="77" documentId="6_{F1E03C79-CB95-42C2-A5F2-68DAEC76D33A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{ECD38895-F506-416A-A86D-9E13A8B0A9C8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{11242185-241D-4A74-AA8F-D46A2BE7D9FB}"/>
   </bookViews>
@@ -24,23 +24,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2863" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2864" uniqueCount="354">
   <si>
     <t>SERIE</t>
   </si>
@@ -1099,13 +1088,16 @@
   </si>
   <si>
     <t>Pachacútec</t>
+  </si>
+  <si>
+    <t>146660T3(ANTES)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1771,13 +1763,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1806,6 +1791,13 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1857,8 +1849,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5F56859F-08D4-4BC2-887B-4FF00B101B3E}" name="Tabla1" displayName="Tabla1" ref="A1:M168" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" headerRowBorderDxfId="14" tableBorderDxfId="15" totalsRowBorderDxfId="13">
-  <autoFilter ref="A1:M168" xr:uid="{5F56859F-08D4-4BC2-887B-4FF00B101B3E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5F56859F-08D4-4BC2-887B-4FF00B101B3E}" name="Tabla1" displayName="Tabla1" ref="A1:M169" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="13">
+  <autoFilter ref="A1:M169" xr:uid="{5F56859F-08D4-4BC2-887B-4FF00B101B3E}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{F6344666-3F16-4B8F-9819-0B63A270CC95}" name="SERIE" dataDxfId="12" dataCellStyle="Normal 2"/>
     <tableColumn id="2" xr3:uid="{BF3A1E42-E0D9-4CDF-8A8F-4D01DA9C2734}" name="SUBESTACION" dataDxfId="11" dataCellStyle="Normal 2"/>
@@ -1879,7 +1871,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2175,13 +2167,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA1F543B-E208-4497-A3ED-9DFED7C26A7E}">
-  <dimension ref="A1:M168"/>
+  <dimension ref="A1:M169"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="C159" sqref="C159"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
@@ -2198,7 +2190,7 @@
     <col min="13" max="13" width="17.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2239,7 +2231,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>13</v>
       </c>
@@ -2280,7 +2272,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>24</v>
       </c>
@@ -2321,7 +2313,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>26</v>
       </c>
@@ -2362,7 +2354,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>28</v>
       </c>
@@ -2401,7 +2393,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>34</v>
       </c>
@@ -2434,7 +2426,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="10"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>36</v>
       </c>
@@ -2475,7 +2467,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>551875</v>
       </c>
@@ -2516,7 +2508,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>551874</v>
       </c>
@@ -2557,7 +2549,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>45</v>
       </c>
@@ -2590,7 +2582,7 @@
       <c r="L10" s="5"/>
       <c r="M10" s="10"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>46</v>
       </c>
@@ -2625,7 +2617,7 @@
       </c>
       <c r="M11" s="10"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>51</v>
       </c>
@@ -2664,7 +2656,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>56</v>
       </c>
@@ -2703,7 +2695,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>57</v>
       </c>
@@ -2742,7 +2734,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>58</v>
       </c>
@@ -2781,7 +2773,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>185635</v>
       </c>
@@ -2820,7 +2812,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>185636</v>
       </c>
@@ -2859,7 +2851,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>64</v>
       </c>
@@ -2898,7 +2890,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>66</v>
       </c>
@@ -2937,7 +2929,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>67</v>
       </c>
@@ -2976,7 +2968,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>68</v>
       </c>
@@ -3015,7 +3007,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>70</v>
       </c>
@@ -3054,7 +3046,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>71</v>
       </c>
@@ -3093,7 +3085,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>72</v>
       </c>
@@ -3130,7 +3122,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>77</v>
       </c>
@@ -3167,7 +3159,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>364072</v>
       </c>
@@ -3204,7 +3196,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>83</v>
       </c>
@@ -3243,7 +3235,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>89</v>
       </c>
@@ -3282,7 +3274,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>90</v>
       </c>
@@ -3321,7 +3313,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>91</v>
       </c>
@@ -3354,7 +3346,7 @@
       <c r="L30" s="5"/>
       <c r="M30" s="10"/>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>94</v>
       </c>
@@ -3387,7 +3379,7 @@
       <c r="L31" s="5"/>
       <c r="M31" s="10"/>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>96</v>
       </c>
@@ -3424,7 +3416,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>99</v>
       </c>
@@ -3461,7 +3453,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>103</v>
       </c>
@@ -3498,7 +3490,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>106</v>
       </c>
@@ -3535,7 +3527,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>110</v>
       </c>
@@ -3572,7 +3564,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>115</v>
       </c>
@@ -3607,7 +3599,7 @@
       </c>
       <c r="M37" s="10"/>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>118</v>
       </c>
@@ -3642,7 +3634,7 @@
       </c>
       <c r="M38" s="10"/>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>121</v>
       </c>
@@ -3679,7 +3671,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>127</v>
       </c>
@@ -3716,7 +3708,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>128</v>
       </c>
@@ -3753,7 +3745,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>146916</v>
       </c>
@@ -3790,7 +3782,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>130</v>
       </c>
@@ -3827,7 +3819,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>132</v>
       </c>
@@ -3866,7 +3858,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>134</v>
       </c>
@@ -3905,7 +3897,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>135</v>
       </c>
@@ -3944,7 +3936,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>185466</v>
       </c>
@@ -3981,7 +3973,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
         <v>137</v>
       </c>
@@ -4018,7 +4010,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
         <v>139</v>
       </c>
@@ -4051,7 +4043,7 @@
       <c r="L49" s="5"/>
       <c r="M49" s="10"/>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>141</v>
       </c>
@@ -4086,7 +4078,7 @@
       </c>
       <c r="M50" s="10"/>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>142</v>
       </c>
@@ -4123,7 +4115,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
         <v>144</v>
       </c>
@@ -4160,7 +4152,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>145</v>
       </c>
@@ -4197,7 +4189,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>150</v>
       </c>
@@ -4234,7 +4226,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>152</v>
       </c>
@@ -4269,7 +4261,7 @@
       </c>
       <c r="M55" s="10"/>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
         <v>154</v>
       </c>
@@ -4304,7 +4296,7 @@
       </c>
       <c r="M56" s="10"/>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
         <v>158</v>
       </c>
@@ -4339,7 +4331,7 @@
       </c>
       <c r="M57" s="10"/>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="8">
         <v>359111</v>
       </c>
@@ -4376,7 +4368,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
         <v>161</v>
       </c>
@@ -4413,7 +4405,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
         <v>165</v>
       </c>
@@ -4450,7 +4442,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
         <v>168</v>
       </c>
@@ -4485,7 +4477,7 @@
       </c>
       <c r="M61" s="10"/>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
         <v>171</v>
       </c>
@@ -4520,7 +4512,7 @@
       </c>
       <c r="M62" s="10"/>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>173</v>
       </c>
@@ -4555,7 +4547,7 @@
       </c>
       <c r="M63" s="10"/>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="8">
         <v>364074</v>
       </c>
@@ -4592,7 +4584,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="8">
         <v>146917</v>
       </c>
@@ -4629,7 +4621,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
         <v>176</v>
       </c>
@@ -4668,7 +4660,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>179</v>
       </c>
@@ -4707,7 +4699,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
         <v>180</v>
       </c>
@@ -4746,7 +4738,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
         <v>181</v>
       </c>
@@ -4779,7 +4771,7 @@
       <c r="L69" s="5"/>
       <c r="M69" s="10"/>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
         <v>183</v>
       </c>
@@ -4816,7 +4808,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
         <v>186</v>
       </c>
@@ -4853,7 +4845,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
         <v>187</v>
       </c>
@@ -4890,7 +4882,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
         <v>190</v>
       </c>
@@ -4927,7 +4919,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
         <v>192</v>
       </c>
@@ -4964,7 +4956,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
         <v>194</v>
       </c>
@@ -5001,7 +4993,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
         <v>196</v>
       </c>
@@ -5038,7 +5030,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
         <v>198</v>
       </c>
@@ -5075,7 +5067,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
         <v>200</v>
       </c>
@@ -5112,7 +5104,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="8">
         <v>364075</v>
       </c>
@@ -5149,7 +5141,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
         <v>201</v>
       </c>
@@ -5186,7 +5178,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
         <v>207</v>
       </c>
@@ -5223,7 +5215,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
         <v>208</v>
       </c>
@@ -5256,7 +5248,7 @@
       <c r="L82" s="5"/>
       <c r="M82" s="10"/>
     </row>
-    <row r="83" spans="1:13">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
         <v>209</v>
       </c>
@@ -5293,7 +5285,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
         <v>211</v>
       </c>
@@ -5330,7 +5322,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
         <v>212</v>
       </c>
@@ -5369,7 +5361,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
         <v>215</v>
       </c>
@@ -5408,7 +5400,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
         <v>216</v>
       </c>
@@ -5447,7 +5439,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
         <v>217</v>
       </c>
@@ -5484,7 +5476,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
         <v>219</v>
       </c>
@@ -5521,7 +5513,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
         <v>220</v>
       </c>
@@ -5554,7 +5546,7 @@
       <c r="L90" s="5"/>
       <c r="M90" s="10"/>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
         <v>222</v>
       </c>
@@ -5591,7 +5583,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
         <v>224</v>
       </c>
@@ -5628,7 +5620,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
         <v>226</v>
       </c>
@@ -5665,7 +5657,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
         <v>228</v>
       </c>
@@ -5702,7 +5694,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="8">
         <v>364073</v>
       </c>
@@ -5739,7 +5731,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
         <v>230</v>
       </c>
@@ -5776,7 +5768,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
         <v>231</v>
       </c>
@@ -5813,7 +5805,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
         <v>235</v>
       </c>
@@ -5850,7 +5842,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
         <v>237</v>
       </c>
@@ -5885,7 +5877,7 @@
       </c>
       <c r="M99" s="10"/>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
         <v>239</v>
       </c>
@@ -5922,7 +5914,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
         <v>242</v>
       </c>
@@ -5961,7 +5953,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
         <v>245</v>
       </c>
@@ -6000,7 +5992,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
         <v>246</v>
       </c>
@@ -6039,7 +6031,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
         <v>247</v>
       </c>
@@ -6072,7 +6064,7 @@
       <c r="L104" s="5"/>
       <c r="M104" s="10"/>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
         <v>248</v>
       </c>
@@ -6109,7 +6101,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
         <v>250</v>
       </c>
@@ -6146,7 +6138,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="107" spans="1:13">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="s">
         <v>252</v>
       </c>
@@ -6183,7 +6175,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="108" spans="1:13">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
         <v>254</v>
       </c>
@@ -6220,7 +6212,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="109" spans="1:13">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="8">
         <v>338118</v>
       </c>
@@ -6255,7 +6247,7 @@
       </c>
       <c r="M109" s="10"/>
     </row>
-    <row r="110" spans="1:13">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="8">
         <v>364077</v>
       </c>
@@ -6292,7 +6284,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="111" spans="1:13">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
         <v>257</v>
       </c>
@@ -6329,7 +6321,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:13">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="s">
         <v>258</v>
       </c>
@@ -6366,7 +6358,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="113" spans="1:13">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="8" t="s">
         <v>261</v>
       </c>
@@ -6403,7 +6395,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="114" spans="1:13">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="8" t="s">
         <v>262</v>
       </c>
@@ -6438,7 +6430,7 @@
       </c>
       <c r="M114" s="10"/>
     </row>
-    <row r="115" spans="1:13">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="8">
         <v>359110</v>
       </c>
@@ -6475,7 +6467,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="116" spans="1:13">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="8" t="s">
         <v>264</v>
       </c>
@@ -6512,7 +6504,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="117" spans="1:13">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="8" t="s">
         <v>266</v>
       </c>
@@ -6549,7 +6541,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="118" spans="1:13">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="8" t="s">
         <v>267</v>
       </c>
@@ -6584,7 +6576,7 @@
       </c>
       <c r="M118" s="10"/>
     </row>
-    <row r="119" spans="1:13">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="s">
         <v>268</v>
       </c>
@@ -6623,7 +6615,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="120" spans="1:13">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="s">
         <v>270</v>
       </c>
@@ -6662,7 +6654,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="121" spans="1:13">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="8" t="s">
         <v>271</v>
       </c>
@@ -6701,7 +6693,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="122" spans="1:13">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="8">
         <v>185767</v>
       </c>
@@ -6740,7 +6732,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="123" spans="1:13">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="8">
         <v>185766</v>
       </c>
@@ -6779,7 +6771,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="124" spans="1:13">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="s">
         <v>272</v>
       </c>
@@ -6818,7 +6810,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="125" spans="1:13">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="8">
         <v>364078</v>
       </c>
@@ -6855,7 +6847,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="126" spans="1:13">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="8" t="s">
         <v>273</v>
       </c>
@@ -6888,7 +6880,7 @@
       <c r="L126" s="5"/>
       <c r="M126" s="10"/>
     </row>
-    <row r="127" spans="1:13">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="8">
         <v>364076</v>
       </c>
@@ -6923,7 +6915,7 @@
       </c>
       <c r="M127" s="10"/>
     </row>
-    <row r="128" spans="1:13">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="20" t="s">
         <v>274</v>
       </c>
@@ -6948,7 +6940,7 @@
       <c r="L128" s="5"/>
       <c r="M128" s="10"/>
     </row>
-    <row r="129" spans="1:13">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="8" t="s">
         <v>277</v>
       </c>
@@ -6987,7 +6979,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="130" spans="1:13">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="8" t="s">
         <v>279</v>
       </c>
@@ -7026,7 +7018,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="131" spans="1:13">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="8" t="s">
         <v>280</v>
       </c>
@@ -7065,7 +7057,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="132" spans="1:13">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="8" t="s">
         <v>281</v>
       </c>
@@ -7104,7 +7096,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="133" spans="1:13">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="8" t="s">
         <v>282</v>
       </c>
@@ -7143,7 +7135,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="134" spans="1:13">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="8" t="s">
         <v>283</v>
       </c>
@@ -7182,7 +7174,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="135" spans="1:13">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="8" t="s">
         <v>284</v>
       </c>
@@ -7219,7 +7211,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="136" spans="1:13">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="8" t="s">
         <v>285</v>
       </c>
@@ -7252,7 +7244,7 @@
       <c r="L136" s="5"/>
       <c r="M136" s="10"/>
     </row>
-    <row r="137" spans="1:13">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="8" t="s">
         <v>288</v>
       </c>
@@ -7289,7 +7281,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="138" spans="1:13">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="8" t="s">
         <v>293</v>
       </c>
@@ -7328,7 +7320,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="139" spans="1:13">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="8" t="s">
         <v>295</v>
       </c>
@@ -7367,7 +7359,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="140" spans="1:13">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="8" t="s">
         <v>296</v>
       </c>
@@ -7406,7 +7398,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="141" spans="1:13">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="8" t="s">
         <v>297</v>
       </c>
@@ -7443,7 +7435,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="142" spans="1:13">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="8" t="s">
         <v>301</v>
       </c>
@@ -7476,7 +7468,7 @@
       <c r="L142" s="5"/>
       <c r="M142" s="10"/>
     </row>
-    <row r="143" spans="1:13">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="8" t="s">
         <v>302</v>
       </c>
@@ -7509,7 +7501,7 @@
       <c r="L143" s="5"/>
       <c r="M143" s="10"/>
     </row>
-    <row r="144" spans="1:13">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="8" t="s">
         <v>304</v>
       </c>
@@ -7546,7 +7538,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="145" spans="1:13">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="8">
         <v>147400</v>
       </c>
@@ -7583,7 +7575,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="146" spans="1:13">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="8" t="s">
         <v>306</v>
       </c>
@@ -7620,7 +7612,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="147" spans="1:13">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="8">
         <v>146918</v>
       </c>
@@ -7657,7 +7649,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="148" spans="1:13">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" s="8" t="s">
         <v>309</v>
       </c>
@@ -7692,7 +7684,7 @@
       </c>
       <c r="M148" s="10"/>
     </row>
-    <row r="149" spans="1:13">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" s="8" t="s">
         <v>311</v>
       </c>
@@ -7729,120 +7721,98 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="150" spans="1:13">
-      <c r="A150" s="8" t="s">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A150" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="B150" s="21"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+      <c r="E150" s="5"/>
+      <c r="F150" s="1"/>
+      <c r="G150" s="5"/>
+      <c r="H150" s="1"/>
+      <c r="I150" s="5"/>
+      <c r="J150" s="5"/>
+      <c r="K150" s="5"/>
+      <c r="L150" s="5"/>
+      <c r="M150" s="10"/>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A151" s="8" t="s">
         <v>314</v>
-      </c>
-      <c r="B150" s="15" t="s">
-        <v>312</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D150" s="1"/>
-      <c r="E150" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F150" s="1">
-        <v>25</v>
-      </c>
-      <c r="G150" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="H150" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="I150" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="J150" s="5">
-        <v>1995</v>
-      </c>
-      <c r="K150" s="5"/>
-      <c r="L150" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="M150" s="10">
-        <v>65.344999999999999</v>
-      </c>
-    </row>
-    <row r="151" spans="1:13">
-      <c r="A151" s="8" t="s">
-        <v>315</v>
       </c>
       <c r="B151" s="15" t="s">
         <v>312</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="D151" s="1"/>
       <c r="E151" s="5" t="s">
         <v>47</v>
       </c>
       <c r="F151" s="1">
-        <v>12.5</v>
+        <v>25</v>
       </c>
       <c r="G151" s="5" t="s">
-        <v>316</v>
+        <v>100</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>317</v>
+        <v>162</v>
       </c>
       <c r="I151" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="J151" s="5" t="s">
-        <v>318</v>
+        <v>76</v>
+      </c>
+      <c r="J151" s="5">
+        <v>1995</v>
       </c>
       <c r="K151" s="5"/>
       <c r="L151" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="M151" s="10"/>
-    </row>
-    <row r="152" spans="1:13">
+      <c r="M151" s="10">
+        <v>65.344999999999999</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="B152" s="17" t="s">
-        <v>320</v>
+        <v>315</v>
+      </c>
+      <c r="B152" s="15" t="s">
+        <v>312</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>16</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D152" s="1"/>
       <c r="E152" s="5" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="F152" s="1">
-        <v>40</v>
+        <v>12.5</v>
       </c>
       <c r="G152" s="5" t="s">
-        <v>54</v>
+        <v>316</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>214</v>
+        <v>317</v>
       </c>
       <c r="I152" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="J152" s="5">
-        <v>1998</v>
+        <v>108</v>
+      </c>
+      <c r="J152" s="5" t="s">
+        <v>318</v>
       </c>
       <c r="K152" s="5"/>
       <c r="L152" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="M152" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="153" spans="1:13">
+        <v>33</v>
+      </c>
+      <c r="M152" s="10"/>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" s="8" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B153" s="17" t="s">
         <v>320</v>
@@ -7851,7 +7821,7 @@
         <v>59</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E153" s="5" t="s">
         <v>17</v>
@@ -7879,9 +7849,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="154" spans="1:13">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B154" s="17" t="s">
         <v>320</v>
@@ -7890,7 +7860,7 @@
         <v>59</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E154" s="5" t="s">
         <v>17</v>
@@ -7905,10 +7875,10 @@
         <v>214</v>
       </c>
       <c r="I154" s="5" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="J154" s="5">
-        <v>2017</v>
+        <v>1998</v>
       </c>
       <c r="K154" s="5"/>
       <c r="L154" s="5" t="s">
@@ -7918,18 +7888,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="155" spans="1:13">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B155" s="17" t="s">
         <v>320</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E155" s="5" t="s">
         <v>17</v>
@@ -7941,25 +7911,25 @@
         <v>54</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>19</v>
+        <v>214</v>
       </c>
       <c r="I155" s="5" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="J155" s="5">
-        <v>1996</v>
+        <v>2017</v>
       </c>
       <c r="K155" s="5"/>
       <c r="L155" s="5" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="M155" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="156" spans="1:13">
-      <c r="A156" s="8">
-        <v>59572</v>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A156" s="8" t="s">
+        <v>323</v>
       </c>
       <c r="B156" s="17" t="s">
         <v>320</v>
@@ -7968,7 +7938,7 @@
         <v>65</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E156" s="5" t="s">
         <v>17</v>
@@ -7996,9 +7966,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="157" spans="1:13">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" s="8">
-        <v>59573</v>
+        <v>59572</v>
       </c>
       <c r="B157" s="17" t="s">
         <v>320</v>
@@ -8007,7 +7977,7 @@
         <v>65</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E157" s="5" t="s">
         <v>17</v>
@@ -8035,17 +8005,19 @@
         <v>23</v>
       </c>
     </row>
-    <row r="158" spans="1:13">
-      <c r="A158" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="B158" s="15" t="s">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A158" s="8">
+        <v>59573</v>
+      </c>
+      <c r="B158" s="17" t="s">
         <v>320</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D158" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="E158" s="5" t="s">
         <v>17</v>
       </c>
@@ -8053,66 +8025,64 @@
         <v>40</v>
       </c>
       <c r="G158" s="5" t="s">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>214</v>
+        <v>19</v>
       </c>
       <c r="I158" s="5" t="s">
         <v>76</v>
       </c>
       <c r="J158" s="5">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="K158" s="5"/>
-      <c r="L158" s="5"/>
-      <c r="M158" s="10"/>
-    </row>
-    <row r="159" spans="1:13">
+      <c r="L158" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M158" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B159" s="15" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D159" s="1"/>
       <c r="E159" s="5" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="F159" s="1">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="G159" s="5" t="s">
-        <v>327</v>
+        <v>92</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>117</v>
+        <v>214</v>
       </c>
       <c r="I159" s="5" t="s">
-        <v>328</v>
+        <v>76</v>
       </c>
       <c r="J159" s="5">
-        <v>1966</v>
-      </c>
-      <c r="K159" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="L159" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="M159" s="10">
-        <v>65.344999999999999</v>
-      </c>
-    </row>
-    <row r="160" spans="1:13">
+        <v>1998</v>
+      </c>
+      <c r="K159" s="5"/>
+      <c r="L159" s="5"/>
+      <c r="M159" s="10"/>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="8" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B160" s="15" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>29</v>
@@ -8122,22 +8092,22 @@
         <v>47</v>
       </c>
       <c r="F160" s="1">
-        <v>50</v>
-      </c>
-      <c r="G160" s="5">
-        <v>50</v>
+        <v>5</v>
+      </c>
+      <c r="G160" s="5" t="s">
+        <v>327</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="I160" s="5" t="s">
-        <v>98</v>
+        <v>328</v>
       </c>
       <c r="J160" s="5">
-        <v>2018</v>
+        <v>1966</v>
       </c>
       <c r="K160" s="5" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="L160" s="5" t="s">
         <v>33</v>
@@ -8146,37 +8116,37 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="161" spans="1:13">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" s="8" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B161" s="15" t="s">
         <v>330</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="D161" s="1"/>
       <c r="E161" s="5" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="F161" s="1">
-        <v>25</v>
-      </c>
-      <c r="G161" s="5" t="s">
-        <v>332</v>
+        <v>50</v>
+      </c>
+      <c r="G161" s="5">
+        <v>50</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="I161" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="J161" s="5" t="s">
-        <v>333</v>
+        <v>98</v>
+      </c>
+      <c r="J161" s="5">
+        <v>2018</v>
       </c>
       <c r="K161" s="5" t="s">
-        <v>334</v>
+        <v>32</v>
       </c>
       <c r="L161" s="5" t="s">
         <v>33</v>
@@ -8185,34 +8155,34 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="162" spans="1:13">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" s="8" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B162" s="15" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="D162" s="1"/>
       <c r="E162" s="5" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="F162" s="1">
         <v>25</v>
       </c>
       <c r="G162" s="5" t="s">
-        <v>100</v>
+        <v>332</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>162</v>
+        <v>112</v>
       </c>
       <c r="I162" s="5" t="s">
-        <v>98</v>
+        <v>166</v>
       </c>
       <c r="J162" s="5" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="K162" s="5" t="s">
         <v>334</v>
@@ -8224,15 +8194,15 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="163" spans="1:13">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" s="8" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B163" s="15" t="s">
         <v>336</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="D163" s="1"/>
       <c r="E163" s="5" t="s">
@@ -8241,17 +8211,17 @@
       <c r="F163" s="1">
         <v>25</v>
       </c>
-      <c r="G163" s="5">
-        <v>25</v>
+      <c r="G163" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>339</v>
+        <v>162</v>
       </c>
       <c r="I163" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="J163" s="5" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="K163" s="5" t="s">
         <v>334</v>
@@ -8263,15 +8233,15 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="164" spans="1:13">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" s="8" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B164" s="15" t="s">
         <v>336</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="D164" s="1"/>
       <c r="E164" s="5" t="s">
@@ -8280,33 +8250,37 @@
       <c r="F164" s="1">
         <v>25</v>
       </c>
-      <c r="G164" s="5" t="s">
-        <v>100</v>
+      <c r="G164" s="5">
+        <v>25</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>157</v>
+        <v>339</v>
       </c>
       <c r="I164" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J164" s="5">
-        <v>1980</v>
-      </c>
-      <c r="K164" s="5"/>
+        <v>104</v>
+      </c>
+      <c r="J164" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="K164" s="5" t="s">
+        <v>334</v>
+      </c>
       <c r="L164" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="M164" s="10"/>
-    </row>
-    <row r="165" spans="1:13">
+      <c r="M164" s="10">
+        <v>65.344999999999999</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B165" s="15" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D165" s="1"/>
       <c r="E165" s="5" t="s">
@@ -8319,55 +8293,51 @@
         <v>100</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I165" s="5" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="J165" s="5">
-        <v>1993</v>
-      </c>
-      <c r="K165" s="5" t="s">
-        <v>334</v>
-      </c>
+        <v>1980</v>
+      </c>
+      <c r="K165" s="5"/>
       <c r="L165" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="M165" s="10">
-        <v>65.344999999999999</v>
-      </c>
-    </row>
-    <row r="166" spans="1:13">
+      <c r="M165" s="10"/>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B166" s="15" t="s">
         <v>343</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="D166" s="1"/>
       <c r="E166" s="5" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="F166" s="1">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="G166" s="5" t="s">
-        <v>253</v>
+        <v>100</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>75</v>
+        <v>162</v>
       </c>
       <c r="I166" s="5" t="s">
         <v>76</v>
       </c>
       <c r="J166" s="5">
-        <v>2005</v>
+        <v>1993</v>
       </c>
       <c r="K166" s="5" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="L166" s="5" t="s">
         <v>33</v>
@@ -8376,77 +8346,116 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="167" spans="1:13">
-      <c r="A167" s="11" t="s">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A167" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="B167" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D167" s="1"/>
+      <c r="E167" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F167" s="1">
+        <v>40</v>
+      </c>
+      <c r="G167" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="H167" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I167" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J167" s="5">
+        <v>2005</v>
+      </c>
+      <c r="K167" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="L167" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M167" s="10">
+        <v>65.344999999999999</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A168" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="B167" s="16" t="s">
+      <c r="B168" s="16" t="s">
         <v>343</v>
       </c>
-      <c r="C167" s="13" t="s">
+      <c r="C168" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D167" s="13"/>
-      <c r="E167" s="12" t="s">
+      <c r="D168" s="13"/>
+      <c r="E168" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F167" s="13">
+      <c r="F168" s="13">
         <v>25</v>
       </c>
-      <c r="G167" s="12" t="s">
+      <c r="G168" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="H167" s="13" t="s">
+      <c r="H168" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="I167" s="12" t="s">
+      <c r="I168" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="J167" s="12">
+      <c r="J168" s="12">
         <v>1980</v>
       </c>
-      <c r="K167" s="12"/>
-      <c r="L167" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="M167" s="14"/>
-    </row>
-    <row r="168" spans="1:13">
-      <c r="A168" s="5" t="s">
+      <c r="K168" s="12"/>
+      <c r="L168" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M168" s="14"/>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A169" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B168" s="15" t="s">
+      <c r="B169" s="15" t="s">
         <v>348</v>
       </c>
-      <c r="C168" s="1" t="s">
+      <c r="C169" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D168" s="1"/>
-      <c r="E168" s="5" t="s">
+      <c r="D169" s="1"/>
+      <c r="E169" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F168" s="1">
+      <c r="F169" s="1">
         <v>25</v>
       </c>
-      <c r="G168" s="5" t="s">
+      <c r="G169" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="H168" s="1" t="s">
+      <c r="H169" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="I168" s="5" t="s">
+      <c r="I169" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="J168" s="5" t="s">
+      <c r="J169" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="K168" s="5" t="s">
+      <c r="K169" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="L168" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="M168" s="5">
+      <c r="L169" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M169" s="5">
         <v>65.344999999999999</v>
       </c>
     </row>
@@ -8467,7 +8476,7 @@
       <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.85546875" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" style="3" bestFit="1" customWidth="1"/>
@@ -8485,7 +8494,7 @@
     <col min="14" max="14" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -8526,7 +8535,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:14">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>13</v>
       </c>
@@ -8567,7 +8576,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="2:14">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>24</v>
       </c>
@@ -8608,7 +8617,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="2:14">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>26</v>
       </c>
@@ -8649,7 +8658,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="2:14">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>28</v>
       </c>
@@ -8688,7 +8697,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="7" spans="2:14">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>34</v>
       </c>
@@ -8721,7 +8730,7 @@
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
     </row>
-    <row r="8" spans="2:14">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>36</v>
       </c>
@@ -8762,7 +8771,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="2:14">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="5">
         <v>551875</v>
       </c>
@@ -8803,7 +8812,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="2:14">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="5">
         <v>551874</v>
       </c>
@@ -8844,7 +8853,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="2:14">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>45</v>
       </c>
@@ -8877,7 +8886,7 @@
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
     </row>
-    <row r="12" spans="2:14">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>46</v>
       </c>
@@ -8912,7 +8921,7 @@
       </c>
       <c r="N12" s="5"/>
     </row>
-    <row r="13" spans="2:14">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>51</v>
       </c>
@@ -8951,7 +8960,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="2:14">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>56</v>
       </c>
@@ -8990,7 +8999,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="2:14">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>57</v>
       </c>
@@ -9029,7 +9038,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="2:14">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>58</v>
       </c>
@@ -9068,7 +9077,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="2:14">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="5">
         <v>185635</v>
       </c>
@@ -9107,7 +9116,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="2:14">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="5">
         <v>185636</v>
       </c>
@@ -9146,7 +9155,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="2:14">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>64</v>
       </c>
@@ -9185,7 +9194,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="2:14">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>66</v>
       </c>
@@ -9224,7 +9233,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="2:14">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>67</v>
       </c>
@@ -9263,7 +9272,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="2:14">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>68</v>
       </c>
@@ -9302,7 +9311,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="2:14">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>70</v>
       </c>
@@ -9341,7 +9350,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="2:14">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>71</v>
       </c>
@@ -9380,7 +9389,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="2:14">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>72</v>
       </c>
@@ -9417,7 +9426,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="26" spans="2:14">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>77</v>
       </c>
@@ -9454,7 +9463,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="27" spans="2:14">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="5">
         <v>364072</v>
       </c>
@@ -9491,7 +9500,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="28" spans="2:14">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>83</v>
       </c>
@@ -9530,7 +9539,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="2:14">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>89</v>
       </c>
@@ -9569,7 +9578,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="2:14">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>90</v>
       </c>
@@ -9608,7 +9617,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="2:14">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>91</v>
       </c>
@@ -9641,7 +9650,7 @@
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
     </row>
-    <row r="32" spans="2:14">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>94</v>
       </c>
@@ -9674,7 +9683,7 @@
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
     </row>
-    <row r="33" spans="2:14">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>96</v>
       </c>
@@ -9711,7 +9720,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="34" spans="2:14">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>99</v>
       </c>
@@ -9748,7 +9757,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="35" spans="2:14">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>103</v>
       </c>
@@ -9785,7 +9794,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="36" spans="2:14">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>106</v>
       </c>
@@ -9822,7 +9831,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="37" spans="2:14">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>110</v>
       </c>
@@ -9859,7 +9868,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="38" spans="2:14">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="5" t="s">
         <v>115</v>
       </c>
@@ -9894,7 +9903,7 @@
       </c>
       <c r="N38" s="5"/>
     </row>
-    <row r="39" spans="2:14">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="5" t="s">
         <v>118</v>
       </c>
@@ -9929,7 +9938,7 @@
       </c>
       <c r="N39" s="5"/>
     </row>
-    <row r="40" spans="2:14">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="5" t="s">
         <v>121</v>
       </c>
@@ -9966,7 +9975,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="41" spans="2:14">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
         <v>127</v>
       </c>
@@ -10003,7 +10012,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="42" spans="2:14">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="5" t="s">
         <v>128</v>
       </c>
@@ -10040,7 +10049,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="43" spans="2:14">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="5">
         <v>146916</v>
       </c>
@@ -10077,7 +10086,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="44" spans="2:14">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="s">
         <v>130</v>
       </c>
@@ -10114,7 +10123,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="45" spans="2:14">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
         <v>132</v>
       </c>
@@ -10153,7 +10162,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="2:14">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="5" t="s">
         <v>134</v>
       </c>
@@ -10192,7 +10201,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="2:14">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="5" t="s">
         <v>135</v>
       </c>
@@ -10231,7 +10240,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="2:14">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="5">
         <v>185466</v>
       </c>
@@ -10268,7 +10277,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="49" spans="2:14">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="5" t="s">
         <v>137</v>
       </c>
@@ -10305,7 +10314,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="50" spans="2:14">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="5" t="s">
         <v>139</v>
       </c>
@@ -10338,7 +10347,7 @@
       <c r="M50" s="5"/>
       <c r="N50" s="5"/>
     </row>
-    <row r="51" spans="2:14">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="5" t="s">
         <v>141</v>
       </c>
@@ -10373,7 +10382,7 @@
       </c>
       <c r="N51" s="5"/>
     </row>
-    <row r="52" spans="2:14">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="5" t="s">
         <v>142</v>
       </c>
@@ -10410,7 +10419,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="53" spans="2:14">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="5" t="s">
         <v>144</v>
       </c>
@@ -10447,7 +10456,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="54" spans="2:14">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="5" t="s">
         <v>145</v>
       </c>
@@ -10484,7 +10493,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="55" spans="2:14">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="5" t="s">
         <v>150</v>
       </c>
@@ -10521,7 +10530,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="56" spans="2:14">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="5" t="s">
         <v>152</v>
       </c>
@@ -10556,7 +10565,7 @@
       </c>
       <c r="N56" s="5"/>
     </row>
-    <row r="57" spans="2:14">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="5" t="s">
         <v>154</v>
       </c>
@@ -10591,7 +10600,7 @@
       </c>
       <c r="N57" s="5"/>
     </row>
-    <row r="58" spans="2:14">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="5" t="s">
         <v>158</v>
       </c>
@@ -10626,7 +10635,7 @@
       </c>
       <c r="N58" s="5"/>
     </row>
-    <row r="59" spans="2:14">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="5">
         <v>359111</v>
       </c>
@@ -10663,7 +10672,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="60" spans="2:14">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="5" t="s">
         <v>161</v>
       </c>
@@ -10700,7 +10709,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="61" spans="2:14">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="5" t="s">
         <v>165</v>
       </c>
@@ -10737,7 +10746,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="62" spans="2:14">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="5" t="s">
         <v>168</v>
       </c>
@@ -10772,7 +10781,7 @@
       </c>
       <c r="N62" s="5"/>
     </row>
-    <row r="63" spans="2:14">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="5" t="s">
         <v>171</v>
       </c>
@@ -10807,7 +10816,7 @@
       </c>
       <c r="N63" s="5"/>
     </row>
-    <row r="64" spans="2:14">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="5" t="s">
         <v>173</v>
       </c>
@@ -10842,7 +10851,7 @@
       </c>
       <c r="N64" s="5"/>
     </row>
-    <row r="65" spans="2:14">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="5">
         <v>364074</v>
       </c>
@@ -10879,7 +10888,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="66" spans="2:14">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="5">
         <v>146917</v>
       </c>
@@ -10916,7 +10925,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="67" spans="2:14">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="5" t="s">
         <v>176</v>
       </c>
@@ -10955,7 +10964,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="68" spans="2:14">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="5" t="s">
         <v>179</v>
       </c>
@@ -10994,7 +11003,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="69" spans="2:14">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="5" t="s">
         <v>180</v>
       </c>
@@ -11033,7 +11042,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="70" spans="2:14">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="5" t="s">
         <v>181</v>
       </c>
@@ -11066,7 +11075,7 @@
       <c r="M70" s="5"/>
       <c r="N70" s="5"/>
     </row>
-    <row r="71" spans="2:14">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="5" t="s">
         <v>183</v>
       </c>
@@ -11103,7 +11112,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="72" spans="2:14">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="5" t="s">
         <v>186</v>
       </c>
@@ -11140,7 +11149,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="73" spans="2:14">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="5" t="s">
         <v>187</v>
       </c>
@@ -11177,7 +11186,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="74" spans="2:14">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="5" t="s">
         <v>190</v>
       </c>
@@ -11214,7 +11223,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="75" spans="2:14">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="5" t="s">
         <v>192</v>
       </c>
@@ -11251,7 +11260,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="76" spans="2:14">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="5" t="s">
         <v>194</v>
       </c>
@@ -11288,7 +11297,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="77" spans="2:14">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="5" t="s">
         <v>196</v>
       </c>
@@ -11325,7 +11334,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="78" spans="2:14">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="5" t="s">
         <v>198</v>
       </c>
@@ -11362,7 +11371,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="79" spans="2:14">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="5" t="s">
         <v>200</v>
       </c>
@@ -11399,7 +11408,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="80" spans="2:14">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="5">
         <v>364075</v>
       </c>
@@ -11436,7 +11445,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="81" spans="2:14">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="5" t="s">
         <v>201</v>
       </c>
@@ -11473,7 +11482,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="82" spans="2:14">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="5" t="s">
         <v>207</v>
       </c>
@@ -11510,7 +11519,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="83" spans="2:14">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="5" t="s">
         <v>208</v>
       </c>
@@ -11543,7 +11552,7 @@
       <c r="M83" s="5"/>
       <c r="N83" s="5"/>
     </row>
-    <row r="84" spans="2:14">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="5" t="s">
         <v>209</v>
       </c>
@@ -11580,7 +11589,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="85" spans="2:14">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="5" t="s">
         <v>211</v>
       </c>
@@ -11617,7 +11626,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="86" spans="2:14">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="5" t="s">
         <v>212</v>
       </c>
@@ -11656,7 +11665,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="87" spans="2:14">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="5" t="s">
         <v>215</v>
       </c>
@@ -11695,7 +11704,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="88" spans="2:14">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="5" t="s">
         <v>216</v>
       </c>
@@ -11734,7 +11743,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="89" spans="2:14">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="5" t="s">
         <v>217</v>
       </c>
@@ -11771,7 +11780,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="90" spans="2:14">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="5" t="s">
         <v>219</v>
       </c>
@@ -11808,7 +11817,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="91" spans="2:14">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="5" t="s">
         <v>220</v>
       </c>
@@ -11841,7 +11850,7 @@
       <c r="M91" s="5"/>
       <c r="N91" s="5"/>
     </row>
-    <row r="92" spans="2:14">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="5" t="s">
         <v>222</v>
       </c>
@@ -11878,7 +11887,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="93" spans="2:14">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="5" t="s">
         <v>224</v>
       </c>
@@ -11915,7 +11924,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="94" spans="2:14">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="5" t="s">
         <v>226</v>
       </c>
@@ -11952,7 +11961,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="95" spans="2:14">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="5" t="s">
         <v>228</v>
       </c>
@@ -11989,7 +11998,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="96" spans="2:14">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="5">
         <v>364073</v>
       </c>
@@ -12026,7 +12035,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="97" spans="2:14">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="5" t="s">
         <v>230</v>
       </c>
@@ -12063,7 +12072,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="98" spans="2:14">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="5" t="s">
         <v>231</v>
       </c>
@@ -12100,7 +12109,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="99" spans="2:14">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="5" t="s">
         <v>235</v>
       </c>
@@ -12137,7 +12146,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="100" spans="2:14">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="5" t="s">
         <v>237</v>
       </c>
@@ -12172,7 +12181,7 @@
       </c>
       <c r="N100" s="5"/>
     </row>
-    <row r="101" spans="2:14">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="5" t="s">
         <v>239</v>
       </c>
@@ -12209,7 +12218,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="102" spans="2:14">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="5" t="s">
         <v>242</v>
       </c>
@@ -12248,7 +12257,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="103" spans="2:14">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="5" t="s">
         <v>245</v>
       </c>
@@ -12287,7 +12296,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="104" spans="2:14">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="5" t="s">
         <v>246</v>
       </c>
@@ -12326,7 +12335,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="105" spans="2:14">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="5" t="s">
         <v>247</v>
       </c>
@@ -12359,7 +12368,7 @@
       <c r="M105" s="5"/>
       <c r="N105" s="5"/>
     </row>
-    <row r="106" spans="2:14">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="5" t="s">
         <v>248</v>
       </c>
@@ -12396,7 +12405,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="107" spans="2:14">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B107" s="5" t="s">
         <v>250</v>
       </c>
@@ -12433,7 +12442,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="108" spans="2:14">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="5" t="s">
         <v>252</v>
       </c>
@@ -12470,7 +12479,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="109" spans="2:14">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="5" t="s">
         <v>254</v>
       </c>
@@ -12507,7 +12516,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="110" spans="2:14">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" s="5">
         <v>338118</v>
       </c>
@@ -12542,7 +12551,7 @@
       </c>
       <c r="N110" s="5"/>
     </row>
-    <row r="111" spans="2:14">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B111" s="5">
         <v>364077</v>
       </c>
@@ -12579,7 +12588,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="112" spans="2:14">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" s="5" t="s">
         <v>257</v>
       </c>
@@ -12616,7 +12625,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="113" spans="2:14">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B113" s="5" t="s">
         <v>258</v>
       </c>
@@ -12653,7 +12662,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="114" spans="2:14">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" s="5" t="s">
         <v>261</v>
       </c>
@@ -12690,7 +12699,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="115" spans="2:14">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B115" s="5" t="s">
         <v>262</v>
       </c>
@@ -12725,7 +12734,7 @@
       </c>
       <c r="N115" s="5"/>
     </row>
-    <row r="116" spans="2:14">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B116" s="5">
         <v>359110</v>
       </c>
@@ -12762,7 +12771,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="117" spans="2:14">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B117" s="5" t="s">
         <v>264</v>
       </c>
@@ -12799,7 +12808,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="118" spans="2:14">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B118" s="5" t="s">
         <v>266</v>
       </c>
@@ -12836,7 +12845,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="119" spans="2:14">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B119" s="5" t="s">
         <v>267</v>
       </c>
@@ -12871,7 +12880,7 @@
       </c>
       <c r="N119" s="5"/>
     </row>
-    <row r="120" spans="2:14">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B120" s="5" t="s">
         <v>268</v>
       </c>
@@ -12910,7 +12919,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="121" spans="2:14">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B121" s="5" t="s">
         <v>270</v>
       </c>
@@ -12949,7 +12958,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="122" spans="2:14">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B122" s="5" t="s">
         <v>271</v>
       </c>
@@ -12988,7 +12997,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="123" spans="2:14">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B123" s="5">
         <v>185767</v>
       </c>
@@ -13027,7 +13036,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="124" spans="2:14">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B124" s="5">
         <v>185766</v>
       </c>
@@ -13066,7 +13075,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="125" spans="2:14">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B125" s="5" t="s">
         <v>272</v>
       </c>
@@ -13105,7 +13114,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="126" spans="2:14">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B126" s="5">
         <v>364078</v>
       </c>
@@ -13142,7 +13151,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="127" spans="2:14">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B127" s="5" t="s">
         <v>273</v>
       </c>
@@ -13175,7 +13184,7 @@
       <c r="M127" s="5"/>
       <c r="N127" s="5"/>
     </row>
-    <row r="128" spans="2:14">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B128" s="5">
         <v>364076</v>
       </c>
@@ -13210,7 +13219,7 @@
       </c>
       <c r="N128" s="5"/>
     </row>
-    <row r="129" spans="2:14">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B129" s="5" t="s">
         <v>277</v>
       </c>
@@ -13249,7 +13258,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="130" spans="2:14">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B130" s="5" t="s">
         <v>279</v>
       </c>
@@ -13288,7 +13297,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="131" spans="2:14">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B131" s="5" t="s">
         <v>280</v>
       </c>
@@ -13327,7 +13336,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="132" spans="2:14">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B132" s="5" t="s">
         <v>281</v>
       </c>
@@ -13366,7 +13375,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="133" spans="2:14">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B133" s="5" t="s">
         <v>282</v>
       </c>
@@ -13405,7 +13414,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="134" spans="2:14">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B134" s="5" t="s">
         <v>283</v>
       </c>
@@ -13444,7 +13453,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="135" spans="2:14">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B135" s="5" t="s">
         <v>284</v>
       </c>
@@ -13481,7 +13490,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="136" spans="2:14">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B136" s="5" t="s">
         <v>285</v>
       </c>
@@ -13514,7 +13523,7 @@
       <c r="M136" s="5"/>
       <c r="N136" s="5"/>
     </row>
-    <row r="137" spans="2:14">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B137" s="5" t="s">
         <v>288</v>
       </c>
@@ -13551,7 +13560,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="138" spans="2:14">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B138" s="5" t="s">
         <v>293</v>
       </c>
@@ -13590,7 +13599,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="139" spans="2:14">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B139" s="5" t="s">
         <v>295</v>
       </c>
@@ -13629,7 +13638,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="140" spans="2:14">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B140" s="5" t="s">
         <v>296</v>
       </c>
@@ -13668,7 +13677,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="141" spans="2:14">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B141" s="5" t="s">
         <v>297</v>
       </c>
@@ -13705,7 +13714,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="142" spans="2:14">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B142" s="5" t="s">
         <v>301</v>
       </c>
@@ -13738,7 +13747,7 @@
       <c r="M142" s="5"/>
       <c r="N142" s="5"/>
     </row>
-    <row r="143" spans="2:14">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B143" s="5" t="s">
         <v>302</v>
       </c>
@@ -13771,7 +13780,7 @@
       <c r="M143" s="5"/>
       <c r="N143" s="5"/>
     </row>
-    <row r="144" spans="2:14">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B144" s="5" t="s">
         <v>304</v>
       </c>
@@ -13808,7 +13817,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="145" spans="2:14">
+    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B145" s="5">
         <v>147400</v>
       </c>
@@ -13845,7 +13854,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="146" spans="2:14">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B146" s="5" t="s">
         <v>306</v>
       </c>
@@ -13882,7 +13891,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="147" spans="2:14">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B147" s="5">
         <v>146918</v>
       </c>
@@ -13919,7 +13928,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="148" spans="2:14">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B148" s="5" t="s">
         <v>309</v>
       </c>
@@ -13954,7 +13963,7 @@
       </c>
       <c r="N148" s="5"/>
     </row>
-    <row r="149" spans="2:14">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B149" s="5" t="s">
         <v>311</v>
       </c>
@@ -13991,7 +14000,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="150" spans="2:14">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B150" s="5" t="s">
         <v>314</v>
       </c>
@@ -14028,7 +14037,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="151" spans="2:14">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B151" s="5" t="s">
         <v>315</v>
       </c>
@@ -14063,7 +14072,7 @@
       </c>
       <c r="N151" s="5"/>
     </row>
-    <row r="152" spans="2:14">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B152" s="5" t="s">
         <v>319</v>
       </c>
@@ -14102,7 +14111,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="153" spans="2:14">
+    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B153" s="5" t="s">
         <v>321</v>
       </c>
@@ -14141,7 +14150,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="154" spans="2:14">
+    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B154" s="5" t="s">
         <v>322</v>
       </c>
@@ -14180,7 +14189,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="155" spans="2:14">
+    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B155" s="5" t="s">
         <v>323</v>
       </c>
@@ -14219,7 +14228,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="156" spans="2:14">
+    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B156" s="5">
         <v>59572</v>
       </c>
@@ -14258,7 +14267,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="157" spans="2:14">
+    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B157" s="5">
         <v>59573</v>
       </c>
@@ -14297,7 +14306,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="158" spans="2:14">
+    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B158" s="5" t="s">
         <v>324</v>
       </c>
@@ -14330,7 +14339,7 @@
       <c r="M158" s="5"/>
       <c r="N158" s="5"/>
     </row>
-    <row r="159" spans="2:14">
+    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B159" s="5" t="s">
         <v>325</v>
       </c>
@@ -14369,7 +14378,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="160" spans="2:14">
+    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B160" s="5" t="s">
         <v>329</v>
       </c>
@@ -14408,7 +14417,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="161" spans="2:14">
+    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B161" s="5" t="s">
         <v>331</v>
       </c>
@@ -14447,7 +14456,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="162" spans="2:14">
+    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B162" s="5" t="s">
         <v>335</v>
       </c>
@@ -14486,7 +14495,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="163" spans="2:14">
+    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B163" s="5" t="s">
         <v>338</v>
       </c>
@@ -14525,7 +14534,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="164" spans="2:14">
+    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B164" s="5" t="s">
         <v>341</v>
       </c>
@@ -14560,7 +14569,7 @@
       </c>
       <c r="N164" s="5"/>
     </row>
-    <row r="165" spans="2:14">
+    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B165" s="5" t="s">
         <v>342</v>
       </c>
@@ -14599,7 +14608,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="166" spans="2:14">
+    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B166" s="5" t="s">
         <v>344</v>
       </c>
@@ -14638,7 +14647,7 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="167" spans="2:14">
+    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B167" s="5" t="s">
         <v>346</v>
       </c>
@@ -14673,7 +14682,7 @@
       </c>
       <c r="N167" s="5"/>
     </row>
-    <row r="168" spans="2:14">
+    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B168" s="5" t="s">
         <v>347</v>
       </c>
@@ -14712,11 +14721,11 @@
         <v>65.344999999999999</v>
       </c>
     </row>
-    <row r="1048576" spans="14:14">
+    <row r="1048576" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N1048576" s="5"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:L168">
+  <sortState ref="B3:L168">
     <sortCondition ref="C3:C168"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14725,6 +14734,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="a1cc19d0-e28e-4f1b-b120-4e42c2fee203" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100973BFEFB9E8EED45AA48D1DFC8B704A3" ma:contentTypeVersion="10" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="48fa98e84d6ca432d9ec38d9b25c34f3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a1cc19d0-e28e-4f1b-b120-4e42c2fee203" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8208d0d75ea2fc72020bc14120e8df3f" ns3:_="">
     <xsd:import namespace="a1cc19d0-e28e-4f1b-b120-4e42c2fee203"/>
@@ -14906,31 +14932,44 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="a1cc19d0-e28e-4f1b-b120-4e42c2fee203" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C89EA1E5-D714-4CF4-A402-332B720743E2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AB6E9F9-7002-453D-A23F-C770D0B18A16}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a1cc19d0-e28e-4f1b-b120-4e42c2fee203"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AB6E9F9-7002-453D-A23F-C770D0B18A16}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12910BB7-EA3B-4F18-8415-6111C589BCB9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12910BB7-EA3B-4F18-8415-6111C589BCB9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C89EA1E5-D714-4CF4-A402-332B720743E2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a1cc19d0-e28e-4f1b-b120-4e42c2fee203"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Basededatos/detalles_transformadores.xlsx
+++ b/Basededatos/detalles_transformadores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roquispec\OneDrive - LUZ DEL SUR S.A.A\Documentos\Estudios de Ingreso\ProyectoRyD_V2\Basededatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="6_{F1E03C79-CB95-42C2-A5F2-68DAEC76D33A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{ECD38895-F506-416A-A86D-9E13A8B0A9C8}"/>
+  <xr:revisionPtr revIDLastSave="91" documentId="6_{F1E03C79-CB95-42C2-A5F2-68DAEC76D33A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BA053E2-1D7C-45FE-AFB0-2B3EC43708F7}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{11242185-241D-4A74-AA8F-D46A2BE7D9FB}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2864" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2992" uniqueCount="361">
   <si>
     <t>SERIE</t>
   </si>
@@ -1091,6 +1091,27 @@
   </si>
   <si>
     <t>146660T3(ANTES)</t>
+  </si>
+  <si>
+    <t>Tres Hermanas</t>
+  </si>
+  <si>
+    <t>130393A/01</t>
+  </si>
+  <si>
+    <t>140515A/01</t>
+  </si>
+  <si>
+    <t>TIPO</t>
+  </si>
+  <si>
+    <t>Termoestabilizado</t>
+  </si>
+  <si>
+    <t>Kraft</t>
+  </si>
+  <si>
+    <t>No-Termoestabilizado</t>
   </si>
 </sst>
 </file>
@@ -1141,7 +1162,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1160,8 +1181,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1265,12 +1292,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1307,12 +1347,60 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{3014A368-80E9-4EAB-913F-5CFA4FBE9311}"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="19">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <name val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1849,22 +1937,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5F56859F-08D4-4BC2-887B-4FF00B101B3E}" name="Tabla1" displayName="Tabla1" ref="A1:M169" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="13">
-  <autoFilter ref="A1:M169" xr:uid="{5F56859F-08D4-4BC2-887B-4FF00B101B3E}"/>
-  <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{F6344666-3F16-4B8F-9819-0B63A270CC95}" name="SERIE" dataDxfId="12" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{BF3A1E42-E0D9-4CDF-8A8F-4D01DA9C2734}" name="SUBESTACION" dataDxfId="11" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{086311AC-BD2B-4D39-A59F-C2F3DBB5BD0F}" name="CIRCUITO" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{757AE7E8-24CE-4AA1-8778-20FAE11E45E5}" name="FASE" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{D454E399-B0D4-42AB-9912-282FD4830B8E}" name="TENSION" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{3CC8E47F-98F3-4318-AB1D-FAC9E7BC6874}" name="POT. INSTALADA" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{23F07AF9-B84D-4BF9-9DF2-DE1D85185F50}" name="POT. PLACA" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{ED7CF816-59D2-4619-8E39-1E2BDCA457A2}" name="RELACION TRANSFORMACION" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{CEE0FEA8-A128-445D-BD33-1D7629A44FBD}" name="MARCA" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{5E1DA30F-CECE-4D50-ACC9-1667500CE4C8}" name="Año Fab." dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{AB2BEE58-DAE3-42F4-9462-6851FF1D161C}" name="POTENCIA" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{DABF4449-1876-463F-885E-3BF16AA12BAF}" name="POS. TAP" dataDxfId="1"/>
-    <tableColumn id="13" xr3:uid="{3C994351-839D-4BCF-BCD5-B289A1CC0FEA}" name="TENSION TAP" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5F56859F-08D4-4BC2-887B-4FF00B101B3E}" name="Tabla1" displayName="Tabla1" ref="A1:N171" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
+  <autoFilter ref="A1:N171" xr:uid="{5F56859F-08D4-4BC2-887B-4FF00B101B3E}"/>
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{F6344666-3F16-4B8F-9819-0B63A270CC95}" name="SERIE" dataDxfId="13" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{BF3A1E42-E0D9-4CDF-8A8F-4D01DA9C2734}" name="SUBESTACION" dataDxfId="12" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{086311AC-BD2B-4D39-A59F-C2F3DBB5BD0F}" name="CIRCUITO" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{757AE7E8-24CE-4AA1-8778-20FAE11E45E5}" name="FASE" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{D454E399-B0D4-42AB-9912-282FD4830B8E}" name="TENSION" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{3CC8E47F-98F3-4318-AB1D-FAC9E7BC6874}" name="POT. INSTALADA" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{23F07AF9-B84D-4BF9-9DF2-DE1D85185F50}" name="POT. PLACA" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{ED7CF816-59D2-4619-8E39-1E2BDCA457A2}" name="RELACION TRANSFORMACION" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{CEE0FEA8-A128-445D-BD33-1D7629A44FBD}" name="MARCA" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{5E1DA30F-CECE-4D50-ACC9-1667500CE4C8}" name="Año Fab." dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{AB2BEE58-DAE3-42F4-9462-6851FF1D161C}" name="POTENCIA" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{DABF4449-1876-463F-885E-3BF16AA12BAF}" name="POS. TAP" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{3C994351-839D-4BCF-BCD5-B289A1CC0FEA}" name="TENSION TAP" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{2E20140B-2F1F-488C-AA00-B1B7F4224BC0}" name="TIPO" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2167,10 +2256,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA1F543B-E208-4497-A3ED-9DFED7C26A7E}">
-  <dimension ref="A1:M169"/>
+  <dimension ref="A1:N171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="C159" sqref="C159"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2188,9 +2277,10 @@
     <col min="11" max="11" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2230,8 +2320,11 @@
       <c r="M1" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" s="28" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>13</v>
       </c>
@@ -2271,8 +2364,11 @@
       <c r="M2" s="10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2" s="27" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>24</v>
       </c>
@@ -2312,8 +2408,11 @@
       <c r="M3" s="10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>26</v>
       </c>
@@ -2353,8 +2452,11 @@
       <c r="M4" s="10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>28</v>
       </c>
@@ -2392,8 +2494,11 @@
       <c r="M5" s="10">
         <v>65.344999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>34</v>
       </c>
@@ -2425,8 +2530,11 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="10"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>36</v>
       </c>
@@ -2466,8 +2574,11 @@
       <c r="M7" s="10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>551875</v>
       </c>
@@ -2507,8 +2618,11 @@
       <c r="M8" s="10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>551874</v>
       </c>
@@ -2548,8 +2662,11 @@
       <c r="M9" s="10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>45</v>
       </c>
@@ -2581,8 +2698,11 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="10"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>46</v>
       </c>
@@ -2616,8 +2736,11 @@
         <v>33</v>
       </c>
       <c r="M11" s="10"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>51</v>
       </c>
@@ -2655,8 +2778,11 @@
       <c r="M12" s="10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12" s="5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>56</v>
       </c>
@@ -2694,8 +2820,11 @@
       <c r="M13" s="10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13" s="5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>57</v>
       </c>
@@ -2733,8 +2862,11 @@
       <c r="M14" s="10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N14" s="5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>58</v>
       </c>
@@ -2772,8 +2904,11 @@
       <c r="M15" s="10" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N15" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>185635</v>
       </c>
@@ -2811,8 +2946,11 @@
       <c r="M16" s="10" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N16" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>185636</v>
       </c>
@@ -2850,8 +2988,11 @@
       <c r="M17" s="10" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N17" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>64</v>
       </c>
@@ -2889,8 +3030,11 @@
       <c r="M18" s="10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N18" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>66</v>
       </c>
@@ -2928,8 +3072,11 @@
       <c r="M19" s="10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N19" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>67</v>
       </c>
@@ -2967,8 +3114,11 @@
       <c r="M20" s="10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N20" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>68</v>
       </c>
@@ -3006,8 +3156,11 @@
       <c r="M21" s="10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N21" s="5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>70</v>
       </c>
@@ -3045,8 +3198,11 @@
       <c r="M22" s="10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N22" s="5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>71</v>
       </c>
@@ -3084,8 +3240,11 @@
       <c r="M23" s="10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N23" s="5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>72</v>
       </c>
@@ -3121,8 +3280,11 @@
       <c r="M24" s="10">
         <v>65.344999999999999</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N24" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>77</v>
       </c>
@@ -3158,8 +3320,11 @@
       <c r="M25" s="10">
         <v>65.344999999999999</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N25" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>364072</v>
       </c>
@@ -3195,8 +3360,11 @@
       <c r="M26" s="10">
         <v>65.344999999999999</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N26" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>83</v>
       </c>
@@ -3234,8 +3402,11 @@
       <c r="M27" s="10" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N27" s="5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>89</v>
       </c>
@@ -3273,8 +3444,11 @@
       <c r="M28" s="10" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N28" s="5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>90</v>
       </c>
@@ -3312,8 +3486,11 @@
       <c r="M29" s="10" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N29" s="5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>91</v>
       </c>
@@ -3345,8 +3522,11 @@
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
       <c r="M30" s="10"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N30" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>94</v>
       </c>
@@ -3378,8 +3558,11 @@
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
       <c r="M31" s="10"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N31" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>96</v>
       </c>
@@ -3415,8 +3598,11 @@
       <c r="M32" s="10">
         <v>65.344999999999999</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N32" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>99</v>
       </c>
@@ -3452,8 +3638,11 @@
       <c r="M33" s="10">
         <v>65.344999999999999</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N33" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>103</v>
       </c>
@@ -3489,8 +3678,11 @@
       <c r="M34" s="10">
         <v>65.344999999999999</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N34" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>106</v>
       </c>
@@ -3526,8 +3718,11 @@
       <c r="M35" s="10">
         <v>65.344999999999999</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N35" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>110</v>
       </c>
@@ -3563,8 +3758,11 @@
       <c r="M36" s="10">
         <v>65.344999999999999</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N36" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>115</v>
       </c>
@@ -3598,8 +3796,11 @@
         <v>33</v>
       </c>
       <c r="M37" s="10"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N37" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>118</v>
       </c>
@@ -3633,8 +3834,11 @@
         <v>33</v>
       </c>
       <c r="M38" s="10"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N38" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>121</v>
       </c>
@@ -3670,8 +3874,11 @@
       <c r="M39" s="10" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N39" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>127</v>
       </c>
@@ -3707,8 +3914,11 @@
       <c r="M40" s="10" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N40" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>128</v>
       </c>
@@ -3744,8 +3954,11 @@
       <c r="M41" s="10">
         <v>65.344999999999999</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N41" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>146916</v>
       </c>
@@ -3781,8 +3994,11 @@
       <c r="M42" s="10">
         <v>65.344999999999999</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N42" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>130</v>
       </c>
@@ -3818,8 +4034,11 @@
       <c r="M43" s="10">
         <v>65.344999999999999</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N43" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>132</v>
       </c>
@@ -3857,8 +4076,11 @@
       <c r="M44" s="10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N44" s="5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>134</v>
       </c>
@@ -3896,8 +4118,11 @@
       <c r="M45" s="10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N45" s="5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>135</v>
       </c>
@@ -3935,8 +4160,11 @@
       <c r="M46" s="10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N46" s="5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>185466</v>
       </c>
@@ -3972,8 +4200,11 @@
       <c r="M47" s="10">
         <v>65.344999999999999</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N47" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
         <v>137</v>
       </c>
@@ -4009,8 +4240,11 @@
       <c r="M48" s="10">
         <v>65.344999999999999</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N48" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
         <v>139</v>
       </c>
@@ -4042,8 +4276,11 @@
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
       <c r="M49" s="10"/>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N49" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>141</v>
       </c>
@@ -4077,8 +4314,11 @@
         <v>33</v>
       </c>
       <c r="M50" s="10"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N50" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>142</v>
       </c>
@@ -4114,8 +4354,11 @@
       <c r="M51" s="10">
         <v>65.344999999999999</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N51" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
         <v>144</v>
       </c>
@@ -4151,8 +4394,11 @@
       <c r="M52" s="10">
         <v>65.344999999999999</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N52" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>145</v>
       </c>
@@ -4188,8 +4434,11 @@
       <c r="M53" s="10" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N53" s="5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>150</v>
       </c>
@@ -4225,8 +4474,11 @@
       <c r="M54" s="10" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N54" s="5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>152</v>
       </c>
@@ -4260,8 +4512,11 @@
         <v>33</v>
       </c>
       <c r="M55" s="10"/>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N55" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
         <v>154</v>
       </c>
@@ -4295,8 +4550,11 @@
         <v>33</v>
       </c>
       <c r="M56" s="10"/>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N56" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
         <v>158</v>
       </c>
@@ -4330,8 +4588,11 @@
         <v>33</v>
       </c>
       <c r="M57" s="10"/>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N57" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="8">
         <v>359111</v>
       </c>
@@ -4367,8 +4628,11 @@
       <c r="M58" s="10">
         <v>65.344999999999999</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N58" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
         <v>161</v>
       </c>
@@ -4404,8 +4668,11 @@
       <c r="M59" s="10">
         <v>65.344999999999999</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N59" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
         <v>165</v>
       </c>
@@ -4441,8 +4708,11 @@
       <c r="M60" s="10">
         <v>65.344999999999999</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N60" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
         <v>168</v>
       </c>
@@ -4476,8 +4746,11 @@
         <v>33</v>
       </c>
       <c r="M61" s="10"/>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N61" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
         <v>171</v>
       </c>
@@ -4511,8 +4784,11 @@
         <v>33</v>
       </c>
       <c r="M62" s="10"/>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N62" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>173</v>
       </c>
@@ -4546,8 +4822,11 @@
         <v>33</v>
       </c>
       <c r="M63" s="10"/>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N63" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="8">
         <v>364074</v>
       </c>
@@ -4583,8 +4862,11 @@
       <c r="M64" s="10">
         <v>65.344999999999999</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N64" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="8">
         <v>146917</v>
       </c>
@@ -4620,8 +4902,11 @@
       <c r="M65" s="10">
         <v>65.344999999999999</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N65" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
         <v>176</v>
       </c>
@@ -4659,8 +4944,11 @@
       <c r="M66" s="10" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N66" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>179</v>
       </c>
@@ -4698,8 +4986,11 @@
       <c r="M67" s="10" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N67" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
         <v>180</v>
       </c>
@@ -4737,8 +5028,11 @@
       <c r="M68" s="10" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N68" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
         <v>181</v>
       </c>
@@ -4770,8 +5064,11 @@
       <c r="K69" s="5"/>
       <c r="L69" s="5"/>
       <c r="M69" s="10"/>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N69" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
         <v>183</v>
       </c>
@@ -4807,8 +5104,11 @@
       <c r="M70" s="10">
         <v>65.344999999999999</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N70" s="5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
         <v>186</v>
       </c>
@@ -4844,8 +5144,11 @@
       <c r="M71" s="10">
         <v>65.344999999999999</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N71" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
         <v>187</v>
       </c>
@@ -4881,8 +5184,11 @@
       <c r="M72" s="10">
         <v>65.344999999999999</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N72" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
         <v>190</v>
       </c>
@@ -4918,8 +5224,11 @@
       <c r="M73" s="10">
         <v>65.344999999999999</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N73" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
         <v>192</v>
       </c>
@@ -4955,8 +5264,11 @@
       <c r="M74" s="10">
         <v>65.344999999999999</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N74" s="5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
         <v>194</v>
       </c>
@@ -4992,8 +5304,11 @@
       <c r="M75" s="10">
         <v>65.344999999999999</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N75" s="5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
         <v>196</v>
       </c>
@@ -5029,8 +5344,11 @@
       <c r="M76" s="10">
         <v>65.344999999999999</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N76" s="5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
         <v>198</v>
       </c>
@@ -5066,8 +5384,11 @@
       <c r="M77" s="10">
         <v>65.344999999999999</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N77" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
         <v>200</v>
       </c>
@@ -5103,8 +5424,11 @@
       <c r="M78" s="10">
         <v>65.344999999999999</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N78" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="8">
         <v>364075</v>
       </c>
@@ -5140,8 +5464,11 @@
       <c r="M79" s="10">
         <v>65.344999999999999</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N79" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
         <v>201</v>
       </c>
@@ -5177,8 +5504,11 @@
       <c r="M80" s="10" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N80" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
         <v>207</v>
       </c>
@@ -5214,8 +5544,11 @@
       <c r="M81" s="10" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N81" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
         <v>208</v>
       </c>
@@ -5247,8 +5580,11 @@
       <c r="K82" s="5"/>
       <c r="L82" s="5"/>
       <c r="M82" s="10"/>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N82" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
         <v>209</v>
       </c>
@@ -5284,8 +5620,11 @@
       <c r="M83" s="10">
         <v>65.344999999999999</v>
       </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N83" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
         <v>211</v>
       </c>
@@ -5321,8 +5660,11 @@
       <c r="M84" s="10">
         <v>65.344999999999999</v>
       </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N84" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
         <v>212</v>
       </c>
@@ -5360,8 +5702,11 @@
       <c r="M85" s="10" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N85" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
         <v>215</v>
       </c>
@@ -5399,8 +5744,11 @@
       <c r="M86" s="10" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N86" s="5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
         <v>216</v>
       </c>
@@ -5438,8 +5786,11 @@
       <c r="M87" s="10" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N87" s="5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
         <v>217</v>
       </c>
@@ -5475,8 +5826,11 @@
       <c r="M88" s="10">
         <v>65.344999999999999</v>
       </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N88" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
         <v>219</v>
       </c>
@@ -5512,8 +5866,11 @@
       <c r="M89" s="10">
         <v>65.344999999999999</v>
       </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N89" s="5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
         <v>220</v>
       </c>
@@ -5545,8 +5902,11 @@
       <c r="K90" s="5"/>
       <c r="L90" s="5"/>
       <c r="M90" s="10"/>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N90" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
         <v>222</v>
       </c>
@@ -5582,8 +5942,11 @@
       <c r="M91" s="10">
         <v>65.344999999999999</v>
       </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N91" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
         <v>224</v>
       </c>
@@ -5619,8 +5982,11 @@
       <c r="M92" s="10">
         <v>65.344999999999999</v>
       </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N92" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
         <v>226</v>
       </c>
@@ -5656,8 +6022,11 @@
       <c r="M93" s="10">
         <v>65.344999999999999</v>
       </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N93" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
         <v>228</v>
       </c>
@@ -5693,8 +6062,11 @@
       <c r="M94" s="10">
         <v>65.344999999999999</v>
       </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N94" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="8">
         <v>364073</v>
       </c>
@@ -5730,8 +6102,11 @@
       <c r="M95" s="10">
         <v>65.344999999999999</v>
       </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N95" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
         <v>230</v>
       </c>
@@ -5767,8 +6142,11 @@
       <c r="M96" s="10">
         <v>65.344999999999999</v>
       </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N96" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
         <v>231</v>
       </c>
@@ -5804,8 +6182,11 @@
       <c r="M97" s="10">
         <v>65.344999999999999</v>
       </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N97" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
         <v>235</v>
       </c>
@@ -5841,8 +6222,11 @@
       <c r="M98" s="10">
         <v>65.344999999999999</v>
       </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N98" s="5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
         <v>237</v>
       </c>
@@ -5876,8 +6260,11 @@
         <v>33</v>
       </c>
       <c r="M99" s="10"/>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N99" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
         <v>239</v>
       </c>
@@ -5913,8 +6300,11 @@
       <c r="M100" s="10" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N100" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
         <v>242</v>
       </c>
@@ -5952,8 +6342,11 @@
       <c r="M101" s="10" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N101" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
         <v>245</v>
       </c>
@@ -5991,8 +6384,11 @@
       <c r="M102" s="10" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N102" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
         <v>246</v>
       </c>
@@ -6030,8 +6426,11 @@
       <c r="M103" s="10" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N103" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
         <v>247</v>
       </c>
@@ -6063,8 +6462,11 @@
       <c r="K104" s="5"/>
       <c r="L104" s="5"/>
       <c r="M104" s="10"/>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N104" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
         <v>248</v>
       </c>
@@ -6100,8 +6502,11 @@
       <c r="M105" s="10" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N105" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
         <v>250</v>
       </c>
@@ -6137,8 +6542,11 @@
       <c r="M106" s="10">
         <v>65.344999999999999</v>
       </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N106" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="s">
         <v>252</v>
       </c>
@@ -6174,8 +6582,11 @@
       <c r="M107" s="10">
         <v>65.344999999999999</v>
       </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N107" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
         <v>254</v>
       </c>
@@ -6211,8 +6622,11 @@
       <c r="M108" s="10">
         <v>65.344999999999999</v>
       </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N108" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="8">
         <v>338118</v>
       </c>
@@ -6246,8 +6660,11 @@
         <v>33</v>
       </c>
       <c r="M109" s="10"/>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N109" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="8">
         <v>364077</v>
       </c>
@@ -6283,8 +6700,11 @@
       <c r="M110" s="10">
         <v>65.344999999999999</v>
       </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N110" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
         <v>257</v>
       </c>
@@ -6320,8 +6740,11 @@
       <c r="M111" s="10">
         <v>65.344999999999999</v>
       </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N111" s="5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="s">
         <v>258</v>
       </c>
@@ -6357,8 +6780,11 @@
       <c r="M112" s="10">
         <v>65.344999999999999</v>
       </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N112" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" s="8" t="s">
         <v>261</v>
       </c>
@@ -6394,8 +6820,11 @@
       <c r="M113" s="10">
         <v>65.344999999999999</v>
       </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N113" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" s="8" t="s">
         <v>262</v>
       </c>
@@ -6429,8 +6858,11 @@
         <v>33</v>
       </c>
       <c r="M114" s="10"/>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N114" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" s="8">
         <v>359110</v>
       </c>
@@ -6466,8 +6898,11 @@
       <c r="M115" s="10">
         <v>65.344999999999999</v>
       </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N115" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" s="8" t="s">
         <v>264</v>
       </c>
@@ -6503,8 +6938,11 @@
       <c r="M116" s="10">
         <v>65.344999999999999</v>
       </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N116" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" s="8" t="s">
         <v>266</v>
       </c>
@@ -6540,8 +6978,11 @@
       <c r="M117" s="10">
         <v>65.344999999999999</v>
       </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N117" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" s="8" t="s">
         <v>267</v>
       </c>
@@ -6575,8 +7016,11 @@
         <v>33</v>
       </c>
       <c r="M118" s="10"/>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N118" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="s">
         <v>268</v>
       </c>
@@ -6614,8 +7058,11 @@
       <c r="M119" s="10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N119" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="s">
         <v>270</v>
       </c>
@@ -6653,8 +7100,11 @@
       <c r="M120" s="10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N120" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" s="8" t="s">
         <v>271</v>
       </c>
@@ -6692,8 +7142,11 @@
       <c r="M121" s="10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N121" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" s="8">
         <v>185767</v>
       </c>
@@ -6731,8 +7184,11 @@
       <c r="M122" s="10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N122" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" s="8">
         <v>185766</v>
       </c>
@@ -6770,8 +7226,11 @@
       <c r="M123" s="10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N123" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="s">
         <v>272</v>
       </c>
@@ -6809,8 +7268,11 @@
       <c r="M124" s="10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N124" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" s="8">
         <v>364078</v>
       </c>
@@ -6846,8 +7308,11 @@
       <c r="M125" s="10">
         <v>65.344999999999999</v>
       </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N125" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" s="8" t="s">
         <v>273</v>
       </c>
@@ -6879,8 +7344,11 @@
       <c r="K126" s="5"/>
       <c r="L126" s="5"/>
       <c r="M126" s="10"/>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N126" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" s="8">
         <v>364076</v>
       </c>
@@ -6914,8 +7382,11 @@
         <v>33</v>
       </c>
       <c r="M127" s="10"/>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N127" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" s="20" t="s">
         <v>274</v>
       </c>
@@ -6939,8 +7410,11 @@
       <c r="K128" s="5"/>
       <c r="L128" s="5"/>
       <c r="M128" s="10"/>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N128" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" s="8" t="s">
         <v>277</v>
       </c>
@@ -6978,8 +7452,11 @@
       <c r="M129" s="10" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N129" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" s="8" t="s">
         <v>279</v>
       </c>
@@ -7017,8 +7494,11 @@
       <c r="M130" s="10" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N130" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" s="8" t="s">
         <v>280</v>
       </c>
@@ -7056,8 +7536,11 @@
       <c r="M131" s="10" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N131" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" s="8" t="s">
         <v>281</v>
       </c>
@@ -7095,8 +7578,11 @@
       <c r="M132" s="10" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N132" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" s="8" t="s">
         <v>282</v>
       </c>
@@ -7134,8 +7620,11 @@
       <c r="M133" s="10" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N133" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" s="8" t="s">
         <v>283</v>
       </c>
@@ -7173,8 +7662,11 @@
       <c r="M134" s="10" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N134" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" s="8" t="s">
         <v>284</v>
       </c>
@@ -7210,8 +7702,11 @@
       <c r="M135" s="10" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N135" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" s="8" t="s">
         <v>285</v>
       </c>
@@ -7243,8 +7738,11 @@
       <c r="K136" s="5"/>
       <c r="L136" s="5"/>
       <c r="M136" s="10"/>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N136" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" s="8" t="s">
         <v>288</v>
       </c>
@@ -7280,8 +7778,11 @@
       <c r="M137" s="10" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N137" s="5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" s="8" t="s">
         <v>293</v>
       </c>
@@ -7319,8 +7820,11 @@
       <c r="M138" s="10" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N138" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" s="8" t="s">
         <v>295</v>
       </c>
@@ -7358,8 +7862,11 @@
       <c r="M139" s="10" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N139" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" s="8" t="s">
         <v>296</v>
       </c>
@@ -7397,8 +7904,11 @@
       <c r="M140" s="10" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N140" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" s="8" t="s">
         <v>297</v>
       </c>
@@ -7434,8 +7944,11 @@
       <c r="M141" s="10" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N141" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" s="8" t="s">
         <v>301</v>
       </c>
@@ -7467,8 +7980,11 @@
       <c r="K142" s="5"/>
       <c r="L142" s="5"/>
       <c r="M142" s="10"/>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N142" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" s="8" t="s">
         <v>302</v>
       </c>
@@ -7500,8 +8016,11 @@
       <c r="K143" s="5"/>
       <c r="L143" s="5"/>
       <c r="M143" s="10"/>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N143" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" s="8" t="s">
         <v>304</v>
       </c>
@@ -7537,8 +8056,11 @@
       <c r="M144" s="10">
         <v>65.344999999999999</v>
       </c>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N144" s="5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145" s="8">
         <v>147400</v>
       </c>
@@ -7574,8 +8096,11 @@
       <c r="M145" s="10">
         <v>65.344999999999999</v>
       </c>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N145" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" s="8" t="s">
         <v>306</v>
       </c>
@@ -7611,8 +8136,11 @@
       <c r="M146" s="10">
         <v>65.344999999999999</v>
       </c>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N146" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147" s="8">
         <v>146918</v>
       </c>
@@ -7648,8 +8176,11 @@
       <c r="M147" s="10">
         <v>65.344999999999999</v>
       </c>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N147" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148" s="8" t="s">
         <v>309</v>
       </c>
@@ -7683,8 +8214,11 @@
         <v>33</v>
       </c>
       <c r="M148" s="10"/>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N148" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149" s="8" t="s">
         <v>311</v>
       </c>
@@ -7720,8 +8254,11 @@
       <c r="M149" s="10">
         <v>65.344999999999999</v>
       </c>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N149" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150" s="20" t="s">
         <v>353</v>
       </c>
@@ -7737,8 +8274,11 @@
       <c r="K150" s="5"/>
       <c r="L150" s="5"/>
       <c r="M150" s="10"/>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N150" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151" s="8" t="s">
         <v>314</v>
       </c>
@@ -7774,8 +8314,11 @@
       <c r="M151" s="10">
         <v>65.344999999999999</v>
       </c>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N151" s="5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152" s="8" t="s">
         <v>315</v>
       </c>
@@ -7809,8 +8352,11 @@
         <v>33</v>
       </c>
       <c r="M152" s="10"/>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N152" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153" s="8" t="s">
         <v>319</v>
       </c>
@@ -7848,8 +8394,11 @@
       <c r="M153" s="10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N153" s="5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154" s="8" t="s">
         <v>321</v>
       </c>
@@ -7887,8 +8436,11 @@
       <c r="M154" s="10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N154" s="5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155" s="8" t="s">
         <v>322</v>
       </c>
@@ -7926,8 +8478,11 @@
       <c r="M155" s="10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N155" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156" s="8" t="s">
         <v>323</v>
       </c>
@@ -7965,8 +8520,11 @@
       <c r="M156" s="10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N156" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157" s="8">
         <v>59572</v>
       </c>
@@ -8004,8 +8562,11 @@
       <c r="M157" s="10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N157" s="5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158" s="8">
         <v>59573</v>
       </c>
@@ -8043,8 +8604,11 @@
       <c r="M158" s="10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N158" s="5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159" s="8" t="s">
         <v>324</v>
       </c>
@@ -8076,8 +8640,11 @@
       <c r="K159" s="5"/>
       <c r="L159" s="5"/>
       <c r="M159" s="10"/>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N159" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160" s="8" t="s">
         <v>325</v>
       </c>
@@ -8115,91 +8682,64 @@
       <c r="M160" s="10">
         <v>65.344999999999999</v>
       </c>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A161" s="8" t="s">
+      <c r="N160" s="5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A161" s="22" t="s">
+        <v>355</v>
+      </c>
+      <c r="B161" s="23" t="s">
+        <v>354</v>
+      </c>
+      <c r="C161" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D161" s="24"/>
+      <c r="E161" s="25"/>
+      <c r="F161" s="24"/>
+      <c r="G161" s="25"/>
+      <c r="H161" s="24"/>
+      <c r="I161" s="25"/>
+      <c r="J161" s="25"/>
+      <c r="K161" s="25"/>
+      <c r="L161" s="25"/>
+      <c r="M161" s="26"/>
+      <c r="N161" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A162" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="B162" s="23" t="s">
+        <v>354</v>
+      </c>
+      <c r="C162" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D162" s="24"/>
+      <c r="E162" s="25"/>
+      <c r="F162" s="24"/>
+      <c r="G162" s="25"/>
+      <c r="H162" s="24"/>
+      <c r="I162" s="25"/>
+      <c r="J162" s="25"/>
+      <c r="K162" s="25"/>
+      <c r="L162" s="25"/>
+      <c r="M162" s="26"/>
+      <c r="N162" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A163" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="B161" s="15" t="s">
+      <c r="B163" s="15" t="s">
         <v>330</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D161" s="1"/>
-      <c r="E161" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F161" s="1">
-        <v>50</v>
-      </c>
-      <c r="G161" s="5">
-        <v>50</v>
-      </c>
-      <c r="H161" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I161" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="J161" s="5">
-        <v>2018</v>
-      </c>
-      <c r="K161" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L161" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="M161" s="10">
-        <v>65.344999999999999</v>
-      </c>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A162" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="B162" s="15" t="s">
-        <v>330</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D162" s="1"/>
-      <c r="E162" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F162" s="1">
-        <v>25</v>
-      </c>
-      <c r="G162" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="H162" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="I162" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="J162" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="K162" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="L162" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="M162" s="10">
-        <v>65.344999999999999</v>
-      </c>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A163" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="B163" s="15" t="s">
-        <v>336</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>29</v>
@@ -8209,22 +8749,22 @@
         <v>47</v>
       </c>
       <c r="F163" s="1">
-        <v>25</v>
-      </c>
-      <c r="G163" s="5" t="s">
-        <v>100</v>
+        <v>50</v>
+      </c>
+      <c r="G163" s="5">
+        <v>50</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>162</v>
+        <v>80</v>
       </c>
       <c r="I163" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="J163" s="5" t="s">
-        <v>337</v>
+      <c r="J163" s="5">
+        <v>2018</v>
       </c>
       <c r="K163" s="5" t="s">
-        <v>334</v>
+        <v>32</v>
       </c>
       <c r="L163" s="5" t="s">
         <v>33</v>
@@ -8232,35 +8772,38 @@
       <c r="M163" s="10">
         <v>65.344999999999999</v>
       </c>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N163" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164" s="8" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B164" s="15" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D164" s="1"/>
       <c r="E164" s="5" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="F164" s="1">
         <v>25</v>
       </c>
-      <c r="G164" s="5">
-        <v>25</v>
+      <c r="G164" s="5" t="s">
+        <v>332</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>339</v>
+        <v>112</v>
       </c>
       <c r="I164" s="5" t="s">
-        <v>104</v>
+        <v>166</v>
       </c>
       <c r="J164" s="5" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="K164" s="5" t="s">
         <v>334</v>
@@ -8271,16 +8814,19 @@
       <c r="M164" s="10">
         <v>65.344999999999999</v>
       </c>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N164" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165" s="8" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B165" s="15" t="s">
         <v>336</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D165" s="1"/>
       <c r="E165" s="5" t="s">
@@ -8293,29 +8839,36 @@
         <v>100</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="I165" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J165" s="5">
-        <v>1980</v>
-      </c>
-      <c r="K165" s="5"/>
+        <v>98</v>
+      </c>
+      <c r="J165" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="K165" s="5" t="s">
+        <v>334</v>
+      </c>
       <c r="L165" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="M165" s="10"/>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M165" s="10">
+        <v>65.344999999999999</v>
+      </c>
+      <c r="N165" s="5" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166" s="8" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B166" s="15" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="D166" s="1"/>
       <c r="E166" s="5" t="s">
@@ -8324,17 +8877,17 @@
       <c r="F166" s="1">
         <v>25</v>
       </c>
-      <c r="G166" s="5" t="s">
-        <v>100</v>
+      <c r="G166" s="5">
+        <v>25</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>162</v>
+        <v>339</v>
       </c>
       <c r="I166" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="J166" s="5">
-        <v>1993</v>
+        <v>104</v>
+      </c>
+      <c r="J166" s="5" t="s">
+        <v>340</v>
       </c>
       <c r="K166" s="5" t="s">
         <v>334</v>
@@ -8345,118 +8898,210 @@
       <c r="M166" s="10">
         <v>65.344999999999999</v>
       </c>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N166" s="5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167" s="8" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B167" s="15" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="D167" s="1"/>
       <c r="E167" s="5" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="F167" s="1">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="G167" s="5" t="s">
-        <v>253</v>
+        <v>100</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>75</v>
+        <v>157</v>
       </c>
       <c r="I167" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J167" s="5">
+        <v>1980</v>
+      </c>
+      <c r="K167" s="5"/>
+      <c r="L167" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M167" s="10"/>
+      <c r="N167" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A168" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="B168" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D168" s="1"/>
+      <c r="E168" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F168" s="1">
+        <v>25</v>
+      </c>
+      <c r="G168" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H168" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I168" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="J167" s="5">
-        <v>2005</v>
-      </c>
-      <c r="K167" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="L167" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="M167" s="10">
+      <c r="J168" s="5">
+        <v>1993</v>
+      </c>
+      <c r="K168" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="L168" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M168" s="10">
         <v>65.344999999999999</v>
       </c>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A168" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="B168" s="16" t="s">
+      <c r="N168" s="5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A169" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="B169" s="15" t="s">
         <v>343</v>
       </c>
-      <c r="C168" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D168" s="13"/>
-      <c r="E168" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F168" s="13">
-        <v>25</v>
-      </c>
-      <c r="G168" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="H168" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="I168" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="J168" s="12">
-        <v>1980</v>
-      </c>
-      <c r="K168" s="12"/>
-      <c r="L168" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="M168" s="14"/>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A169" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="B169" s="15" t="s">
-        <v>348</v>
-      </c>
       <c r="C169" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D169" s="1"/>
       <c r="E169" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F169" s="1">
+        <v>40</v>
+      </c>
+      <c r="G169" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="H169" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I169" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J169" s="5">
+        <v>2005</v>
+      </c>
+      <c r="K169" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="L169" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M169" s="10">
+        <v>65.344999999999999</v>
+      </c>
+      <c r="N169" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A170" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="B170" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="C170" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D170" s="13"/>
+      <c r="E170" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F169" s="1">
+      <c r="F170" s="13">
         <v>25</v>
       </c>
-      <c r="G169" s="5" t="s">
+      <c r="G170" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="H169" s="1" t="s">
+      <c r="H170" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="I170" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="J170" s="12">
+        <v>1980</v>
+      </c>
+      <c r="K170" s="12"/>
+      <c r="L170" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M170" s="14"/>
+      <c r="N170" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A171" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B171" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D171" s="1"/>
+      <c r="E171" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F171" s="1">
+        <v>25</v>
+      </c>
+      <c r="G171" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H171" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="I169" s="5" t="s">
+      <c r="I171" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="J169" s="5" t="s">
+      <c r="J171" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="K169" s="5" t="s">
+      <c r="K171" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="L169" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="M169" s="5">
+      <c r="L171" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M171" s="5">
         <v>65.344999999999999</v>
+      </c>
+      <c r="N171" s="12" t="s">
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -14734,23 +15379,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="a1cc19d0-e28e-4f1b-b120-4e42c2fee203" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100973BFEFB9E8EED45AA48D1DFC8B704A3" ma:contentTypeVersion="10" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="48fa98e84d6ca432d9ec38d9b25c34f3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a1cc19d0-e28e-4f1b-b120-4e42c2fee203" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8208d0d75ea2fc72020bc14120e8df3f" ns3:_="">
     <xsd:import namespace="a1cc19d0-e28e-4f1b-b120-4e42c2fee203"/>
@@ -14932,31 +15560,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AB6E9F9-7002-453D-A23F-C770D0B18A16}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="a1cc19d0-e28e-4f1b-b120-4e42c2fee203"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12910BB7-EA3B-4F18-8415-6111C589BCB9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="a1cc19d0-e28e-4f1b-b120-4e42c2fee203" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C89EA1E5-D714-4CF4-A402-332B720743E2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14972,4 +15593,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12910BB7-EA3B-4F18-8415-6111C589BCB9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AB6E9F9-7002-453D-A23F-C770D0B18A16}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a1cc19d0-e28e-4f1b-b120-4e42c2fee203"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>